--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="52">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,14 +220,26 @@
     <t>FED-RF-2023-Project-KYM</t>
   </si>
   <si>
-    <t>△</t>
+    <t>FED-RF-2023-Project-PSJ</t>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권영혜 프로젝트 파일 아직 업로드전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수민 프로젝트 깃 따로 생성요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,8 +272,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +291,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,7 +628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,27 +701,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,31 +749,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1035,88 +1079,88 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="24" t="s">
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="26"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="31"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="29" t="s">
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="29" t="s">
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="35"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1126,9 +1170,9 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="31"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="37"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1138,9 +1182,9 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="30"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="31"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="37"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1150,7 +1194,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="30"/>
+      <c r="U4" s="33"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2393,10 +2437,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2472,6 +2516,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -2488,8 +2534,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2504,10 +2548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2533,47 +2577,47 @@
   <sheetData>
     <row r="1" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="24" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="26"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="31"/>
     </row>
     <row r="3" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="39" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="41" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="40" t="s">
@@ -2585,51 +2629,51 @@
       <c r="H3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="29" t="s">
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="U3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="29" t="s">
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="35"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2639,9 +2683,9 @@
       <c r="K4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="31"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="37"/>
       <c r="O4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2651,9 +2695,9 @@
       <c r="Q4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="30"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="31"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="37"/>
       <c r="U4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2663,7 +2707,7 @@
       <c r="W4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="30"/>
+      <c r="X4" s="33"/>
     </row>
     <row r="5" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2673,7 +2717,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>12</v>
@@ -2889,7 +2933,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>12</v>
@@ -3031,7 +3075,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>12</v>
@@ -3102,7 +3146,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>12</v>
@@ -3173,7 +3217,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>12</v>
@@ -4086,17 +4130,17 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38">
+      <c r="C25" s="27"/>
+      <c r="D25" s="24">
         <f>COUNTIF(D5:D24,"○")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="20">
-        <f t="shared" ref="E25:G25" si="0">COUNTIF(E5:E24,"○")</f>
-        <v>0</v>
+        <f t="shared" ref="E25" si="0">COUNTIF(E5:E24,"○")</f>
+        <v>4</v>
       </c>
       <c r="F25" s="20">
         <f t="shared" ref="F25:H25" si="1">COUNTIF(F5:F24,"○")</f>
@@ -4111,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="20">
-        <f t="shared" ref="H25:X25" si="2">COUNTIF(I5:I24,"○")</f>
+        <f t="shared" ref="I25:X25" si="2">COUNTIF(I5:I24,"○")</f>
         <v>0</v>
       </c>
       <c r="J25" s="20">
@@ -4176,37 +4220,73 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="36" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42" t="s">
+      <c r="C26" s="45"/>
+      <c r="D26" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+    </row>
+    <row r="27" spans="1:24" ht="60" x14ac:dyDescent="0.3">
+      <c r="B27" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="G3:G4"/>
@@ -4223,11 +4303,6 @@
     <mergeCell ref="D2:L2"/>
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="S2:X2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4245,7 +4320,7 @@
   <dimension ref="B1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4329,6 +4404,9 @@
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="3">

--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="54">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,13 @@
   </si>
   <si>
     <t>박수민 프로젝트 깃 따로 생성요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△</t>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +313,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -628,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,6 +720,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,16 +768,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,17 +783,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,88 +1098,88 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="28" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="34" t="s">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="31"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="37"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="38" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="32" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="32" t="s">
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="32" t="s">
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="30"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1170,9 +1189,9 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="37"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="29"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1182,9 +1201,9 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="33"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="37"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="29"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1213,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="33"/>
+      <c r="U4" s="39"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2437,10 +2456,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2516,11 +2535,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="D2:I2"/>
@@ -2534,6 +2548,11 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2550,8 +2569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2577,103 +2596,103 @@
   <sheetData>
     <row r="1" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="28" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="34" t="s">
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="31"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="37"/>
     </row>
     <row r="3" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="43" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="32" t="s">
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="32" t="s">
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="S3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="36" t="s">
+      <c r="T3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="36" t="s">
+      <c r="U3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="32" t="s">
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="30"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2683,9 +2702,9 @@
       <c r="K4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="37"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2695,9 +2714,9 @@
       <c r="Q4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="33"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="37"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="29"/>
       <c r="U4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2707,7 +2726,7 @@
       <c r="W4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="33"/>
+      <c r="X4" s="39"/>
     </row>
     <row r="5" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -3288,10 +3307,10 @@
         <v>12</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>12</v>
@@ -3362,7 +3381,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>12</v>
@@ -3433,7 +3452,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>12</v>
@@ -3504,7 +3523,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>12</v>
@@ -4130,10 +4149,10 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="24">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>4</v>
@@ -4144,7 +4163,7 @@
       </c>
       <c r="F25" s="20">
         <f t="shared" ref="F25:H25" si="1">COUNTIF(F5:F24,"○")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" s="20">
         <f t="shared" si="1"/>
@@ -4221,72 +4240,67 @@
     </row>
     <row r="26" spans="1:24" ht="36" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
     </row>
     <row r="27" spans="1:24" ht="60" x14ac:dyDescent="0.3">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="G3:G4"/>
@@ -4303,6 +4317,11 @@
     <mergeCell ref="D2:L2"/>
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="S2:X2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -726,9 +726,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,55 +756,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,88 +1098,88 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="34" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="40" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="37"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="38" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="38" t="s">
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="38" t="s">
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="36"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1189,9 +1189,9 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="29"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1201,9 +1201,9 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="29"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="35"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1213,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="39"/>
+      <c r="U4" s="34"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2456,10 +2456,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2535,6 +2535,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="D2:I2"/>
@@ -2550,9 +2553,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2570,7 +2570,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2596,103 +2596,103 @@
   <sheetData>
     <row r="1" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="34" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="40" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="37"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="30"/>
     </row>
     <row r="3" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="43" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="38" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="38" t="s">
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="U3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="38" t="s">
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="36"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="46"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2702,9 +2702,9 @@
       <c r="K4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="29"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="35"/>
       <c r="O4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2714,9 +2714,9 @@
       <c r="Q4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="39"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="29"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="35"/>
       <c r="U4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2726,7 +2726,7 @@
       <c r="W4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="39"/>
+      <c r="X4" s="34"/>
     </row>
     <row r="5" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -3236,10 +3236,10 @@
         <v>12</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>12</v>
@@ -4149,21 +4149,21 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="24">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>4</v>
       </c>
       <c r="E25" s="20">
         <f t="shared" ref="E25" si="0">COUNTIF(E5:E24,"○")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="20">
         <f t="shared" ref="F25:H25" si="1">COUNTIF(F5:F24,"○")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" s="20">
         <f t="shared" si="1"/>
@@ -4301,6 +4301,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="G3:G4"/>
@@ -4317,11 +4322,6 @@
     <mergeCell ref="D2:L2"/>
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="S2:X2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -726,27 +726,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,16 +768,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -781,12 +787,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,88 +1098,88 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="28" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="30"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="33"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33" t="s">
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="33" t="s">
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="39"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1189,9 +1189,9 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1201,9 +1201,9 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="39"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1213,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="34"/>
+      <c r="U4" s="35"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2456,10 +2456,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2535,6 +2535,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -2551,8 +2553,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2569,8 +2569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2596,103 +2596,103 @@
   <sheetData>
     <row r="1" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="28" t="s">
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="30"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="33"/>
     </row>
     <row r="3" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33" t="s">
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="33" t="s">
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="32" t="s">
+      <c r="U3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="33" t="s">
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="39"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2702,9 +2702,9 @@
       <c r="K4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="39"/>
       <c r="O4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2714,9 +2714,9 @@
       <c r="Q4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="34"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="39"/>
       <c r="U4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2726,7 +2726,7 @@
       <c r="W4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="34"/>
+      <c r="X4" s="35"/>
     </row>
     <row r="5" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -4149,10 +4149,10 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="24">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>4</v>
@@ -4301,11 +4301,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="G3:G4"/>
@@ -4322,6 +4317,11 @@
     <mergeCell ref="D2:L2"/>
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="S2:X2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="59">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,31 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/4
+(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/5
+(화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/6
+(수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/7
+(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/8
+(금)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,13 +334,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,6 +745,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,36 +788,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,88 +1117,88 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="30" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="36" t="s">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="33"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="37"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="40" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="34" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="34" t="s">
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="P3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="34" t="s">
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="32"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1189,9 +1208,9 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="29"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1201,9 +1220,9 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="29"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1232,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="35"/>
+      <c r="U4" s="39"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2456,10 +2475,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2535,11 +2554,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="D2:I2"/>
@@ -2553,6 +2567,11 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2567,168 +2586,194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+    <row r="1" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="30" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="36" t="s">
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="33"/>
-    </row>
-    <row r="3" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="42" t="s">
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="37"/>
+    </row>
+    <row r="3" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="47" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="34" t="s">
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="R3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="S3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="T3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="34" t="s">
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="X3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="38" t="s">
+      <c r="Y3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="38" t="s">
+      <c r="Z3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="34" t="s">
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="32"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="43"/>
+    <row r="4" spans="2:29" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="36"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="46"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="5" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="5" t="s">
+      <c r="Q4" s="39"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="35"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="5" t="s">
+      <c r="W4" s="39"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="35"/>
-    </row>
-    <row r="5" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC4" s="39"/>
+    </row>
+    <row r="5" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -2759,10 +2804,10 @@
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="L5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N5" s="7" t="s">
@@ -2774,13 +2819,13 @@
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="6" t="s">
+      <c r="Q5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="T5" s="7" t="s">
@@ -2792,14 +2837,29 @@
       <c r="V5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -2830,10 +2890,10 @@
       <c r="K6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="9" t="s">
+      <c r="L6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N6" s="10" t="s">
@@ -2845,13 +2905,13 @@
       <c r="P6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="9" t="s">
+      <c r="Q6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T6" s="10" t="s">
@@ -2863,14 +2923,29 @@
       <c r="V6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>3</v>
       </c>
@@ -2901,10 +2976,10 @@
       <c r="K7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="9" t="s">
+      <c r="L7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N7" s="10" t="s">
@@ -2916,13 +2991,13 @@
       <c r="P7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="9" t="s">
+      <c r="Q7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T7" s="10" t="s">
@@ -2934,14 +3009,29 @@
       <c r="V7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>4</v>
       </c>
@@ -2972,10 +3062,10 @@
       <c r="K8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="9" t="s">
+      <c r="L8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="10" t="s">
@@ -2987,13 +3077,13 @@
       <c r="P8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="9" t="s">
+      <c r="Q8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T8" s="10" t="s">
@@ -3005,14 +3095,29 @@
       <c r="V8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -3043,10 +3148,10 @@
       <c r="K9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="9" t="s">
+      <c r="L9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N9" s="10" t="s">
@@ -3058,13 +3163,13 @@
       <c r="P9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="9" t="s">
+      <c r="Q9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T9" s="10" t="s">
@@ -3076,14 +3181,29 @@
       <c r="V9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>6</v>
       </c>
@@ -3114,10 +3234,10 @@
       <c r="K10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="9" t="s">
+      <c r="L10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N10" s="10" t="s">
@@ -3129,13 +3249,13 @@
       <c r="P10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="9" t="s">
+      <c r="Q10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T10" s="10" t="s">
@@ -3147,14 +3267,29 @@
       <c r="V10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>7</v>
       </c>
@@ -3185,10 +3320,10 @@
       <c r="K11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="9" t="s">
+      <c r="L11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N11" s="10" t="s">
@@ -3200,13 +3335,13 @@
       <c r="P11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S11" s="9" t="s">
+      <c r="Q11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T11" s="10" t="s">
@@ -3218,14 +3353,29 @@
       <c r="V11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>8</v>
       </c>
@@ -3256,10 +3406,10 @@
       <c r="K12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="9" t="s">
+      <c r="L12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N12" s="10" t="s">
@@ -3271,13 +3421,13 @@
       <c r="P12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="9" t="s">
+      <c r="Q12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T12" s="10" t="s">
@@ -3289,14 +3439,29 @@
       <c r="V12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>9</v>
       </c>
@@ -3327,10 +3492,10 @@
       <c r="K13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="9" t="s">
+      <c r="L13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N13" s="10" t="s">
@@ -3342,13 +3507,13 @@
       <c r="P13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="9" t="s">
+      <c r="Q13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T13" s="10" t="s">
@@ -3360,14 +3525,29 @@
       <c r="V13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>10</v>
       </c>
@@ -3398,10 +3578,10 @@
       <c r="K14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="9" t="s">
+      <c r="L14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N14" s="10" t="s">
@@ -3413,13 +3593,13 @@
       <c r="P14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="9" t="s">
+      <c r="Q14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T14" s="10" t="s">
@@ -3431,14 +3611,29 @@
       <c r="V14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>11</v>
       </c>
@@ -3469,10 +3664,10 @@
       <c r="K15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="9" t="s">
+      <c r="L15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N15" s="10" t="s">
@@ -3484,13 +3679,13 @@
       <c r="P15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="9" t="s">
+      <c r="Q15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T15" s="10" t="s">
@@ -3502,14 +3697,29 @@
       <c r="V15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC15" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>12</v>
       </c>
@@ -3540,10 +3750,10 @@
       <c r="K16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="9" t="s">
+      <c r="L16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N16" s="10" t="s">
@@ -3555,13 +3765,13 @@
       <c r="P16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="9" t="s">
+      <c r="Q16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T16" s="10" t="s">
@@ -3573,14 +3783,29 @@
       <c r="V16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC16" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>13</v>
       </c>
@@ -3597,7 +3822,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>12</v>
@@ -3611,10 +3836,10 @@
       <c r="K17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="9" t="s">
+      <c r="L17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N17" s="10" t="s">
@@ -3626,13 +3851,13 @@
       <c r="P17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="9" t="s">
+      <c r="Q17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T17" s="10" t="s">
@@ -3644,14 +3869,29 @@
       <c r="V17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC17" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>14</v>
       </c>
@@ -3668,7 +3908,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>12</v>
@@ -3682,10 +3922,10 @@
       <c r="K18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="9" t="s">
+      <c r="L18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N18" s="10" t="s">
@@ -3697,13 +3937,13 @@
       <c r="P18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="9" t="s">
+      <c r="Q18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T18" s="10" t="s">
@@ -3715,14 +3955,29 @@
       <c r="V18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC18" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>15</v>
       </c>
@@ -3739,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>12</v>
@@ -3753,10 +4008,10 @@
       <c r="K19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="9" t="s">
+      <c r="L19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N19" s="10" t="s">
@@ -3768,13 +4023,13 @@
       <c r="P19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S19" s="9" t="s">
+      <c r="Q19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T19" s="10" t="s">
@@ -3786,14 +4041,29 @@
       <c r="V19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC19" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>16</v>
       </c>
@@ -3810,7 +4080,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>12</v>
@@ -3824,10 +4094,10 @@
       <c r="K20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="9" t="s">
+      <c r="L20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N20" s="10" t="s">
@@ -3839,13 +4109,13 @@
       <c r="P20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S20" s="9" t="s">
+      <c r="Q20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T20" s="10" t="s">
@@ -3857,14 +4127,29 @@
       <c r="V20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X20" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC20" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>17</v>
       </c>
@@ -3895,10 +4180,10 @@
       <c r="K21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="9" t="s">
+      <c r="L21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N21" s="10" t="s">
@@ -3910,13 +4195,13 @@
       <c r="P21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S21" s="9" t="s">
+      <c r="Q21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T21" s="10" t="s">
@@ -3928,14 +4213,29 @@
       <c r="V21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC21" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>18</v>
       </c>
@@ -3966,10 +4266,10 @@
       <c r="K22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="9" t="s">
+      <c r="L22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N22" s="10" t="s">
@@ -3981,13 +4281,13 @@
       <c r="P22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S22" s="9" t="s">
+      <c r="Q22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T22" s="10" t="s">
@@ -3999,14 +4299,29 @@
       <c r="V22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X22" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC22" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>19</v>
       </c>
@@ -4037,10 +4352,10 @@
       <c r="K23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="9" t="s">
+      <c r="L23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N23" s="10" t="s">
@@ -4052,13 +4367,13 @@
       <c r="P23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S23" s="9" t="s">
+      <c r="Q23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T23" s="10" t="s">
@@ -4070,14 +4385,29 @@
       <c r="V23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC23" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="14">
         <v>20</v>
       </c>
@@ -4099,19 +4429,19 @@
       <c r="H24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="16" t="s">
+      <c r="I24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N24" s="17" t="s">
@@ -4123,13 +4453,13 @@
       <c r="P24" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Q24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="S24" s="16" t="s">
+      <c r="Q24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S24" s="17" t="s">
         <v>12</v>
       </c>
       <c r="T24" s="17" t="s">
@@ -4141,18 +4471,33 @@
       <c r="V24" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="W24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X24" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="28" t="s">
+      <c r="W24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC24" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="24">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>4</v>
@@ -4162,19 +4507,19 @@
         <v>3</v>
       </c>
       <c r="F25" s="20">
-        <f t="shared" ref="F25:H25" si="1">COUNTIF(F5:F24,"○")</f>
+        <f t="shared" ref="F25:M25" si="1">COUNTIF(F5:F24,"○")</f>
         <v>5</v>
       </c>
       <c r="G25" s="20">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" ref="H25:L25" si="2">COUNTIF(H5:H24,"○")</f>
         <v>0</v>
       </c>
-      <c r="H25" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="I25" s="20">
-        <f t="shared" ref="I25:X25" si="2">COUNTIF(I5:I24,"○")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J25" s="20">
@@ -4185,60 +4530,80 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M25" s="22">
-        <f t="shared" si="2"/>
+      <c r="M25" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N25" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N25:AC25" si="3">COUNTIF(N5:N24,"○")</f>
         <v>0</v>
       </c>
       <c r="O25" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P25" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="20">
-        <f t="shared" si="2"/>
+      <c r="Q25" s="23">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R25" s="23">
-        <f t="shared" si="2"/>
+      <c r="R25" s="22">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S25" s="22">
-        <f t="shared" si="2"/>
+      <c r="S25" s="20">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T25" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U25" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V25" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W25" s="20">
-        <f t="shared" si="2"/>
+      <c r="W25" s="23">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X25" s="21">
-        <f t="shared" si="2"/>
+      <c r="X25" s="22">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="36" x14ac:dyDescent="0.3">
+      <c r="Y25" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="36" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
       <c r="B26" s="26" t="s">
         <v>40</v>
@@ -4267,8 +4632,13 @@
       <c r="V26" s="26"/>
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
-    </row>
-    <row r="27" spans="1:24" ht="60" x14ac:dyDescent="0.3">
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+    </row>
+    <row r="27" spans="1:29" ht="60" x14ac:dyDescent="0.3">
       <c r="B27" s="26" t="s">
         <v>49</v>
       </c>
@@ -4298,34 +4668,44 @@
       <c r="V27" s="26"/>
       <c r="W27" s="26"/>
       <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="X3:X4"/>
+  <mergeCells count="26">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="D2:Q2"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="X2:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:X24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:AC24">
       <formula1>"×,○,△"</formula1>
     </dataValidation>
   </dataValidations>

--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -745,7 +745,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,34 +775,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -800,12 +806,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1117,88 +1117,88 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="34" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="40" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="37"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="38" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="38" t="s">
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="38" t="s">
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="36"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1208,9 +1208,9 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="29"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1220,9 +1220,9 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="29"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="35"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="39"/>
+      <c r="U4" s="34"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2475,10 +2475,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2554,6 +2554,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="D2:I2"/>
@@ -2569,9 +2572,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2588,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2616,128 +2616,128 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="34" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="40" t="s">
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="37"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="30"/>
     </row>
     <row r="3" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="38" t="s">
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="35" t="s">
+      <c r="R3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="38" t="s">
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="30" t="s">
+      <c r="X3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="28" t="s">
+      <c r="Y3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="28" t="s">
+      <c r="Z3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="38" t="s">
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:29" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="36"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
       <c r="N4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2747,9 +2747,9 @@
       <c r="P4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="29"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="35"/>
       <c r="T4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2759,9 +2759,9 @@
       <c r="V4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="39"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="29"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="35"/>
       <c r="Z4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2771,7 +2771,7 @@
       <c r="AB4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="39"/>
+      <c r="AC4" s="34"/>
     </row>
     <row r="5" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2796,7 +2796,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>12</v>
@@ -2882,7 +2882,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>12</v>
@@ -2968,7 +2968,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>12</v>
@@ -3054,7 +3054,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>12</v>
@@ -4169,7 +4169,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>12</v>
@@ -4255,7 +4255,7 @@
         <v>12</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>12</v>
@@ -4341,7 +4341,7 @@
         <v>12</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>12</v>
@@ -4427,7 +4427,7 @@
         <v>12</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>12</v>
@@ -4494,10 +4494,10 @@
       </c>
     </row>
     <row r="25" spans="1:29" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="24">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>4</v>
@@ -4516,11 +4516,11 @@
       </c>
       <c r="H25" s="20">
         <f t="shared" ref="H25:L25" si="2">COUNTIF(H5:H24,"○")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" s="20">
         <f t="shared" si="2"/>
@@ -4676,16 +4676,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="G3:G4"/>
@@ -4702,6 +4692,16 @@
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="R2:W2"/>
     <mergeCell ref="X2:AC2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -745,25 +745,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -775,16 +787,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -800,12 +806,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1117,88 +1117,88 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="28" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="30"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="33"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33" t="s">
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="33" t="s">
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="39"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1208,9 +1208,9 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1220,9 +1220,9 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="39"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="34"/>
+      <c r="U4" s="35"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2475,10 +2475,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2554,6 +2554,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -2570,8 +2572,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2588,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2616,128 +2616,128 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="31" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="28" t="s">
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="30"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="33"/>
     </row>
     <row r="3" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33" t="s">
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="33" t="s">
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="36" t="s">
+      <c r="X3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="32" t="s">
+      <c r="Y3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="32" t="s">
+      <c r="Z3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="33" t="s">
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:29" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="39"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
       <c r="N4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2747,9 +2747,9 @@
       <c r="P4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="39"/>
       <c r="T4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2759,9 +2759,9 @@
       <c r="V4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="34"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="39"/>
       <c r="Z4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2771,7 +2771,7 @@
       <c r="AB4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="34"/>
+      <c r="AC4" s="35"/>
     </row>
     <row r="5" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -3057,7 +3057,7 @@
         <v>52</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>12</v>
@@ -3143,7 +3143,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>12</v>
@@ -3229,7 +3229,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>12</v>
@@ -4494,10 +4494,10 @@
       </c>
     </row>
     <row r="25" spans="1:29" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="24">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="J25" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K25" s="20">
         <f t="shared" si="2"/>
@@ -4676,6 +4676,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="G3:G4"/>
@@ -4692,16 +4702,6 @@
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="R2:W2"/>
     <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="65">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,36 @@
   <si>
     <t>9/7
 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/11
+(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/12
+(화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/13
+(수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/14
+(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/15
+(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/18
+(월)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -313,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,7 +364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,9 +769,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -745,6 +778,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,37 +820,58 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1117,88 +1183,88 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="30" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="36" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="33"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="36"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="40" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="34" t="s">
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="34" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="P3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="34" t="s">
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="32"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1208,9 +1274,9 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="39"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1220,9 +1286,9 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="39"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="28"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1232,7 +1298,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="35"/>
+      <c r="U4" s="38"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2475,10 +2541,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2554,11 +2620,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="D2:I2"/>
@@ -2572,6 +2633,11 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2586,10 +2652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2598,12 +2664,9 @@
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="4.875" customWidth="1"/>
+    <col min="19" max="19" width="4.875" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="5.25" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7.125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
@@ -2612,144 +2675,167 @@
     <col min="26" max="27" width="5.25" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="7.125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+    <row r="1" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="30" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="36" t="s">
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="33"/>
-    </row>
-    <row r="3" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="44" t="s">
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="36"/>
+    </row>
+    <row r="3" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="34"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="O3" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="34" t="s">
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="X3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="Y3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="38" t="s">
+      <c r="Z3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="34" t="s">
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="40" t="s">
+      <c r="AD3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="38" t="s">
+      <c r="AE3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="38" t="s">
+      <c r="AF3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="34" t="s">
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:29" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="32"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="39"/>
+    <row r="4" spans="2:35" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="35"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
       <c r="T4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2759,9 +2845,9 @@
       <c r="V4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="35"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="39"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="28"/>
       <c r="Z4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2771,61 +2857,73 @@
       <c r="AB4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="35"/>
-    </row>
-    <row r="5" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI4" s="38"/>
+    </row>
+    <row r="5" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="7" t="s">
+      <c r="D5" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="51" t="s">
         <v>12</v>
       </c>
       <c r="T5" s="7" t="s">
@@ -2855,63 +2953,81 @@
       <c r="AB5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AC5" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="10" t="s">
+      <c r="D6" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T6" s="10" t="s">
@@ -2941,63 +3057,81 @@
       <c r="AB6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC6" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI6" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="10" t="s">
+      <c r="D7" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T7" s="10" t="s">
@@ -3027,63 +3161,81 @@
       <c r="AB7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC7" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="D8" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="10" t="s">
+      <c r="J8" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T8" s="10" t="s">
@@ -3113,63 +3265,81 @@
       <c r="AB8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC8" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI8" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="10" t="s">
+      <c r="D9" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T9" s="10" t="s">
@@ -3199,63 +3369,81 @@
       <c r="AB9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC9" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI9" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="10" t="s">
+      <c r="D10" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T10" s="10" t="s">
@@ -3285,63 +3473,81 @@
       <c r="AB10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC10" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI10" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S11" s="10" t="s">
+      <c r="D11" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T11" s="10" t="s">
@@ -3371,63 +3577,81 @@
       <c r="AB11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC11" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="10" t="s">
+      <c r="F12" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T12" s="10" t="s">
@@ -3457,63 +3681,81 @@
       <c r="AB12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC12" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI12" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="10" t="s">
+      <c r="G13" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T13" s="10" t="s">
@@ -3543,63 +3785,81 @@
       <c r="AB13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC13" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="10" t="s">
+      <c r="D14" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T14" s="10" t="s">
@@ -3629,63 +3889,81 @@
       <c r="AB14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC14" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI14" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="10" t="s">
+      <c r="D15" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T15" s="10" t="s">
@@ -3715,63 +3993,81 @@
       <c r="AB15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC15" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI15" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="10" t="s">
+      <c r="D16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T16" s="10" t="s">
@@ -3801,63 +4097,81 @@
       <c r="AB16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC16" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI16" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="10" t="s">
+      <c r="D17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T17" s="10" t="s">
@@ -3887,63 +4201,81 @@
       <c r="AB17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC17" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI17" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="10" t="s">
+      <c r="D18" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T18" s="10" t="s">
@@ -3973,63 +4305,81 @@
       <c r="AB18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC18" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI18" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S19" s="10" t="s">
+      <c r="D19" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T19" s="10" t="s">
@@ -4059,63 +4409,81 @@
       <c r="AB19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC19" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI19" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S20" s="10" t="s">
+      <c r="D20" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T20" s="10" t="s">
@@ -4145,63 +4513,81 @@
       <c r="AB20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC20" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI20" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S21" s="10" t="s">
+      <c r="D21" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T21" s="10" t="s">
@@ -4231,63 +4617,81 @@
       <c r="AB21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC21" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI21" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S22" s="10" t="s">
+      <c r="D22" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T22" s="10" t="s">
@@ -4317,63 +4721,81 @@
       <c r="AB22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC22" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI22" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S23" s="10" t="s">
+      <c r="D23" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T23" s="10" t="s">
@@ -4403,63 +4825,81 @@
       <c r="AB23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC23" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI23" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="14">
         <v>20</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="S24" s="17" t="s">
+      <c r="D24" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S24" s="50" t="s">
         <v>12</v>
       </c>
       <c r="T24" s="17" t="s">
@@ -4489,223 +4929,283 @@
       <c r="AB24" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AC24" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="28" t="s">
+      <c r="AC24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI24" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="24">
+      <c r="C25" s="32"/>
+      <c r="D25" s="52">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>4</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="53">
         <f t="shared" ref="E25" si="0">COUNTIF(E5:E24,"○")</f>
         <v>3</v>
       </c>
-      <c r="F25" s="20">
-        <f t="shared" ref="F25:M25" si="1">COUNTIF(F5:F24,"○")</f>
+      <c r="F25" s="53">
+        <f t="shared" ref="F25:S25" si="1">COUNTIF(F5:F24,"○")</f>
         <v>5</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="53">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H25" s="20">
-        <f t="shared" ref="H25:L25" si="2">COUNTIF(H5:H24,"○")</f>
+      <c r="H25" s="53">
+        <f t="shared" ref="H25:R25" si="2">COUNTIF(H5:H24,"○")</f>
         <v>4</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="58">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="58">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="58">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L25" s="45">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M25" s="58">
+        <f t="shared" ref="M25" si="3">COUNTIF(M5:M24,"○")</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L25" s="20">
+      <c r="O25" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M25" s="20">
+      <c r="P25" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N25" s="20">
-        <f t="shared" ref="N25:AC25" si="3">COUNTIF(N5:N24,"○")</f>
+      <c r="T25" s="20">
+        <f t="shared" ref="T25:AI25" si="4">COUNTIF(T5:T24,"○")</f>
         <v>0</v>
       </c>
-      <c r="O25" s="20">
-        <f t="shared" si="3"/>
+      <c r="U25" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P25" s="20">
-        <f t="shared" si="3"/>
+      <c r="V25" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="23">
-        <f t="shared" si="3"/>
+      <c r="W25" s="23">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R25" s="22">
-        <f t="shared" si="3"/>
+      <c r="X25" s="22">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S25" s="20">
-        <f t="shared" si="3"/>
+      <c r="Y25" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T25" s="20">
-        <f t="shared" si="3"/>
+      <c r="Z25" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U25" s="20">
-        <f t="shared" si="3"/>
+      <c r="AA25" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V25" s="20">
-        <f t="shared" si="3"/>
+      <c r="AB25" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W25" s="23">
-        <f t="shared" si="3"/>
+      <c r="AC25" s="23">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X25" s="22">
-        <f t="shared" si="3"/>
+      <c r="AD25" s="22">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="20">
-        <f t="shared" si="3"/>
+      <c r="AE25" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="20">
-        <f t="shared" si="3"/>
+      <c r="AF25" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="20">
-        <f t="shared" si="3"/>
+      <c r="AG25" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="20">
-        <f t="shared" si="3"/>
+      <c r="AH25" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="21">
-        <f t="shared" si="3"/>
+      <c r="AI25" s="21">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="36" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26" t="s">
+    <row r="26" spans="1:35" ht="36" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="25"/>
+      <c r="D26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-    </row>
-    <row r="27" spans="1:29" ht="60" x14ac:dyDescent="0.3">
-      <c r="B27" s="26" t="s">
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+    </row>
+    <row r="27" spans="1:35" ht="60" x14ac:dyDescent="0.3">
+      <c r="B27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27" t="s">
+      <c r="C27" s="25"/>
+      <c r="D27" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="32">
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:W2"/>
+    <mergeCell ref="X2:AC2"/>
+    <mergeCell ref="AD2:AI2"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:Q2"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="X2:AC2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:AC24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:AI24">
       <formula1>"×,○,△"</formula1>
     </dataValidation>
   </dataValidations>

--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -778,9 +778,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,88 +838,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,88 +1183,88 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="33" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="39" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="36"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="39"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="29" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="37" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="37" t="s">
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="37" t="s">
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="35"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1274,9 +1274,9 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="28"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="44"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1286,9 +1286,9 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="28"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="44"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="38"/>
+      <c r="U4" s="43"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2541,10 +2541,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="32"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2620,6 +2620,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="D2:I2"/>
@@ -2635,9 +2638,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2654,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2684,158 +2684,158 @@
   <sheetData>
     <row r="1" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="33" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="39" t="s">
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="36"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="39"/>
     </row>
     <row r="3" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="46" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="M3" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="47" t="s">
+      <c r="Q3" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="47" t="s">
+      <c r="R3" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="47" t="s">
+      <c r="S3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="27" t="s">
+      <c r="T3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="37" t="s">
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="34" t="s">
+      <c r="X3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="27" t="s">
+      <c r="Y3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="27" t="s">
+      <c r="Z3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="37" t="s">
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="29" t="s">
+      <c r="AD3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="27" t="s">
+      <c r="AE3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AF3" s="27" t="s">
+      <c r="AF3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="37" t="s">
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:35" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="35"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
       <c r="T4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2845,9 +2845,9 @@
       <c r="V4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="38"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="28"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="44"/>
       <c r="Z4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2857,9 +2857,9 @@
       <c r="AB4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="28"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="44"/>
       <c r="AF4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2869,7 +2869,7 @@
       <c r="AH4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="38"/>
+      <c r="AI4" s="43"/>
     </row>
     <row r="5" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2878,52 +2878,52 @@
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="51" t="s">
+      <c r="D5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="31" t="s">
         <v>12</v>
       </c>
       <c r="T5" s="7" t="s">
@@ -2982,52 +2982,52 @@
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="50" t="s">
+      <c r="D6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T6" s="10" t="s">
@@ -3086,52 +3086,52 @@
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="50" t="s">
+      <c r="D7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T7" s="10" t="s">
@@ -3190,52 +3190,52 @@
       <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="57" t="s">
+      <c r="D8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="50" t="s">
+      <c r="J8" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T8" s="10" t="s">
@@ -3294,52 +3294,52 @@
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="50" t="s">
+      <c r="D9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T9" s="10" t="s">
@@ -3398,52 +3398,52 @@
       <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="50" t="s">
+      <c r="D10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T10" s="10" t="s">
@@ -3502,52 +3502,52 @@
       <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S11" s="50" t="s">
+      <c r="D11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T11" s="10" t="s">
@@ -3606,52 +3606,52 @@
       <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="50" t="s">
+      <c r="D12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="44" t="s">
+      <c r="F12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="50" t="s">
+      <c r="M12" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T12" s="10" t="s">
@@ -3710,52 +3710,52 @@
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="50" t="s">
+      <c r="D13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="50" t="s">
+      <c r="G13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T13" s="10" t="s">
@@ -3814,52 +3814,52 @@
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="57" t="s">
+      <c r="D14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="50" t="s">
+      <c r="L14" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T14" s="10" t="s">
@@ -3918,52 +3918,52 @@
       <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="50" t="s">
+      <c r="D15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T15" s="10" t="s">
@@ -4022,52 +4022,52 @@
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="50" t="s">
+      <c r="D16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T16" s="10" t="s">
@@ -4126,52 +4126,52 @@
       <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="50" t="s">
+      <c r="D17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T17" s="10" t="s">
@@ -4230,52 +4230,52 @@
       <c r="C18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="50" t="s">
+      <c r="D18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T18" s="10" t="s">
@@ -4334,52 +4334,52 @@
       <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S19" s="50" t="s">
+      <c r="D19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T19" s="10" t="s">
@@ -4438,52 +4438,52 @@
       <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S20" s="50" t="s">
+      <c r="D20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T20" s="10" t="s">
@@ -4542,52 +4542,52 @@
       <c r="C21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R21" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S21" s="50" t="s">
+      <c r="D21" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T21" s="10" t="s">
@@ -4646,52 +4646,52 @@
       <c r="C22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S22" s="50" t="s">
+      <c r="D22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T22" s="10" t="s">
@@ -4750,52 +4750,52 @@
       <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S23" s="50" t="s">
+      <c r="D23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T23" s="10" t="s">
@@ -4854,52 +4854,52 @@
       <c r="C24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P24" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="S24" s="50" t="s">
+      <c r="D24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S24" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T24" s="17" t="s">
@@ -4952,71 +4952,71 @@
       </c>
     </row>
     <row r="25" spans="1:35" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="52">
+      <c r="C25" s="50"/>
+      <c r="D25" s="32">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>4</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="33">
         <f t="shared" ref="E25" si="0">COUNTIF(E5:E24,"○")</f>
         <v>3</v>
       </c>
-      <c r="F25" s="53">
+      <c r="F25" s="33">
         <f t="shared" ref="F25:S25" si="1">COUNTIF(F5:F24,"○")</f>
         <v>5</v>
       </c>
-      <c r="G25" s="53">
+      <c r="G25" s="33">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H25" s="53">
+      <c r="H25" s="33">
         <f t="shared" ref="H25:R25" si="2">COUNTIF(H5:H24,"○")</f>
         <v>4</v>
       </c>
-      <c r="I25" s="58">
+      <c r="I25" s="36">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J25" s="58">
+      <c r="J25" s="36">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K25" s="58">
+      <c r="K25" s="36">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="36">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M25" s="58">
+      <c r="M25" s="29">
         <f t="shared" ref="M25" si="3">COUNTIF(M5:M24,"○")</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="53">
+        <v>3</v>
+      </c>
+      <c r="N25" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O25" s="53">
+      <c r="O25" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P25" s="53">
+      <c r="P25" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="53">
+      <c r="Q25" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R25" s="53">
+      <c r="R25" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S25" s="53">
+      <c r="S25" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5170,6 +5170,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="G3:G4"/>
@@ -5186,22 +5202,6 @@
     <mergeCell ref="D2:W2"/>
     <mergeCell ref="X2:AC2"/>
     <mergeCell ref="AD2:AI2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -343,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,7 +370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,79 +805,94 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,88 +1204,88 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="39"/>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
       <c r="O2" s="39"/>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="39"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="45" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42" t="s">
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42" t="s">
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="42" t="s">
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="40" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="48"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1274,9 +1295,9 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="44"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1286,9 +1307,9 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="44"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="45"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1298,7 +1319,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="43"/>
+      <c r="U4" s="41"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2541,10 +2562,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2620,6 +2641,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -2636,8 +2659,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2654,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2684,158 +2705,158 @@
   <sheetData>
     <row r="1" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
       <c r="W2" s="39"/>
-      <c r="X2" s="40" t="s">
+      <c r="X2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
       <c r="AC2" s="39"/>
-      <c r="AD2" s="37" t="s">
+      <c r="AD2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
       <c r="AI2" s="39"/>
     </row>
     <row r="3" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="51" t="s">
+      <c r="O3" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="R3" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="T3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="42" t="s">
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="47" t="s">
+      <c r="X3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="41" t="s">
+      <c r="Y3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="41" t="s">
+      <c r="Z3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="42" t="s">
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="45" t="s">
+      <c r="AD3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="41" t="s">
+      <c r="AE3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AF3" s="41" t="s">
+      <c r="AF3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="42" t="s">
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="40" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:35" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="48"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="51"/>
       <c r="T4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2845,9 +2866,9 @@
       <c r="V4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="43"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="44"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="45"/>
       <c r="Z4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2857,9 +2878,9 @@
       <c r="AB4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="44"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="45"/>
       <c r="AF4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2869,7 +2890,7 @@
       <c r="AH4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="43"/>
+      <c r="AI4" s="41"/>
     </row>
     <row r="5" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2893,34 +2914,34 @@
       <c r="H5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="31" t="s">
+      <c r="I5" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="S5" s="31" t="s">
@@ -2997,34 +3018,34 @@
       <c r="H6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="30" t="s">
+      <c r="I6" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S6" s="30" t="s">
@@ -3101,34 +3122,34 @@
       <c r="H7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="30" t="s">
+      <c r="I7" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S7" s="30" t="s">
@@ -3205,34 +3226,34 @@
       <c r="H8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="30" t="s">
+      <c r="J8" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S8" s="30" t="s">
@@ -3309,34 +3330,34 @@
       <c r="H9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="30" t="s">
+      <c r="I9" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S9" s="30" t="s">
@@ -3413,34 +3434,34 @@
       <c r="H10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="30" t="s">
+      <c r="I10" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S10" s="30" t="s">
@@ -3517,34 +3538,34 @@
       <c r="H11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="30" t="s">
+      <c r="I11" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S11" s="30" t="s">
@@ -3621,34 +3642,34 @@
       <c r="H12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="35" t="s">
+      <c r="I12" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="30" t="s">
+      <c r="M12" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S12" s="30" t="s">
@@ -3725,34 +3746,34 @@
       <c r="H13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="30" t="s">
+      <c r="I13" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S13" s="30" t="s">
@@ -3829,34 +3850,34 @@
       <c r="H14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="35" t="s">
+      <c r="I14" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="30" t="s">
+      <c r="L14" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S14" s="30" t="s">
@@ -3933,34 +3954,34 @@
       <c r="H15" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="30" t="s">
+      <c r="I15" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S15" s="30" t="s">
@@ -4037,34 +4058,34 @@
       <c r="H16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="30" t="s">
+      <c r="I16" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S16" s="30" t="s">
@@ -4141,34 +4162,34 @@
       <c r="H17" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="30" t="s">
+      <c r="I17" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S17" s="30" t="s">
@@ -4245,34 +4266,34 @@
       <c r="H18" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="N18" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="30" t="s">
+      <c r="I18" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S18" s="30" t="s">
@@ -4349,34 +4370,34 @@
       <c r="H19" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19" s="30" t="s">
+      <c r="I19" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S19" s="30" t="s">
@@ -4453,34 +4474,34 @@
       <c r="H20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="30" t="s">
+      <c r="I20" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S20" s="30" t="s">
@@ -4557,34 +4578,34 @@
       <c r="H21" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R21" s="30" t="s">
+      <c r="I21" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S21" s="30" t="s">
@@ -4661,34 +4682,34 @@
       <c r="H22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="30" t="s">
+      <c r="I22" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S22" s="30" t="s">
@@ -4765,34 +4786,34 @@
       <c r="H23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="30" t="s">
+      <c r="I23" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S23" s="30" t="s">
@@ -4869,34 +4890,34 @@
       <c r="H24" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="30" t="s">
+      <c r="I24" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="61" t="s">
         <v>12</v>
       </c>
       <c r="S24" s="30" t="s">
@@ -4952,10 +4973,10 @@
       </c>
     </row>
     <row r="25" spans="1:35" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="32">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>4</v>
@@ -4976,43 +4997,43 @@
         <f t="shared" ref="H25:R25" si="2">COUNTIF(H5:H24,"○")</f>
         <v>4</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="63">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="63">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="63">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="63">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="63">
         <f t="shared" ref="M25" si="3">COUNTIF(M5:M24,"○")</f>
         <v>3</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="29">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O25" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O25" s="33">
+      <c r="P25" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P25" s="33">
+      <c r="Q25" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="33">
+      <c r="R25" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5170,6 +5191,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:W2"/>
+    <mergeCell ref="X2:AC2"/>
+    <mergeCell ref="AD2:AI2"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:V3"/>
@@ -5186,22 +5223,6 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:W2"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="AD2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -805,6 +805,36 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,16 +865,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,10 +877,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,34 +889,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,88 +1204,88 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="36" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="42" t="s">
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="39"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="49"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="46" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="40" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="40" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="Q3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="R3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="40" t="s">
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="38"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1295,9 +1295,9 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="45"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1307,9 +1307,9 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="45"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="41"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="41"/>
+      <c r="U4" s="51"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2562,10 +2562,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2641,11 +2641,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="D2:I2"/>
@@ -2659,6 +2654,11 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2676,7 +2676,7 @@
   <dimension ref="A1:AI27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2705,158 +2705,158 @@
   <sheetData>
     <row r="1" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="36" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="42" t="s">
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="39"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="49"/>
     </row>
     <row r="3" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="48" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="L3" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="M3" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="58" t="s">
+      <c r="O3" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="58" t="s">
+      <c r="P3" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="58" t="s">
+      <c r="Q3" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="58" t="s">
+      <c r="R3" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="S3" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="44" t="s">
+      <c r="T3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="40" t="s">
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="37" t="s">
+      <c r="X3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="44" t="s">
+      <c r="Y3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="44" t="s">
+      <c r="Z3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="40" t="s">
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="46" t="s">
+      <c r="AD3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="44" t="s">
+      <c r="AE3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AF3" s="44" t="s">
+      <c r="AF3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="40" t="s">
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:35" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="38"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="51"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="55"/>
       <c r="T4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2866,9 +2866,9 @@
       <c r="V4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="41"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="45"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="41"/>
       <c r="Z4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2878,9 +2878,9 @@
       <c r="AB4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="45"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="41"/>
       <c r="AF4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2890,7 +2890,7 @@
       <c r="AH4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="41"/>
+      <c r="AI4" s="51"/>
     </row>
     <row r="5" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2914,34 +2914,34 @@
       <c r="H5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="60" t="s">
+      <c r="I5" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="36" t="s">
         <v>12</v>
       </c>
       <c r="S5" s="31" t="s">
@@ -3018,34 +3018,34 @@
       <c r="H6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="61" t="s">
+      <c r="I6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S6" s="30" t="s">
@@ -3122,34 +3122,34 @@
       <c r="H7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="61" t="s">
+      <c r="I7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S7" s="30" t="s">
@@ -3226,34 +3226,34 @@
       <c r="H8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="61" t="s">
+      <c r="J8" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S8" s="30" t="s">
@@ -3330,34 +3330,34 @@
       <c r="H9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="61" t="s">
+      <c r="I9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S9" s="30" t="s">
@@ -3434,34 +3434,34 @@
       <c r="H10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="61" t="s">
+      <c r="I10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S10" s="30" t="s">
@@ -3538,34 +3538,34 @@
       <c r="H11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="61" t="s">
+      <c r="I11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S11" s="30" t="s">
@@ -3642,34 +3642,34 @@
       <c r="H12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="57" t="s">
+      <c r="I12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="61" t="s">
+      <c r="M12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S12" s="30" t="s">
@@ -3746,34 +3746,34 @@
       <c r="H13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="61" t="s">
+      <c r="I13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S13" s="30" t="s">
@@ -3850,34 +3850,34 @@
       <c r="H14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="57" t="s">
+      <c r="I14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="61" t="s">
+      <c r="L14" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S14" s="30" t="s">
@@ -3954,34 +3954,34 @@
       <c r="H15" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="61" t="s">
+      <c r="I15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S15" s="30" t="s">
@@ -4058,34 +4058,34 @@
       <c r="H16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="61" t="s">
+      <c r="I16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S16" s="30" t="s">
@@ -4162,34 +4162,34 @@
       <c r="H17" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="N17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="61" t="s">
+      <c r="I17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S17" s="30" t="s">
@@ -4266,34 +4266,34 @@
       <c r="H18" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="61" t="s">
+      <c r="I18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S18" s="30" t="s">
@@ -4370,34 +4370,34 @@
       <c r="H19" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19" s="61" t="s">
+      <c r="I19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S19" s="30" t="s">
@@ -4474,34 +4474,34 @@
       <c r="H20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="61" t="s">
+      <c r="I20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S20" s="30" t="s">
@@ -4578,34 +4578,34 @@
       <c r="H21" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="O21" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R21" s="61" t="s">
+      <c r="I21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S21" s="30" t="s">
@@ -4682,34 +4682,34 @@
       <c r="H22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="61" t="s">
+      <c r="I22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S22" s="30" t="s">
@@ -4786,34 +4786,34 @@
       <c r="H23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="O23" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="61" t="s">
+      <c r="I23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S23" s="30" t="s">
@@ -4890,34 +4890,34 @@
       <c r="H24" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="O24" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P24" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="61" t="s">
+      <c r="I24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="37" t="s">
         <v>12</v>
       </c>
       <c r="S24" s="30" t="s">
@@ -4973,10 +4973,10 @@
       </c>
     </row>
     <row r="25" spans="1:35" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="32">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>4</v>
@@ -4997,43 +4997,43 @@
         <f t="shared" ref="H25:R25" si="2">COUNTIF(H5:H24,"○")</f>
         <v>4</v>
       </c>
-      <c r="I25" s="63">
+      <c r="I25" s="39">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J25" s="63">
+      <c r="J25" s="39">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K25" s="63">
+      <c r="K25" s="39">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L25" s="63">
+      <c r="L25" s="39">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M25" s="63">
+      <c r="M25" s="39">
         <f t="shared" ref="M25" si="3">COUNTIF(M5:M24,"○")</f>
         <v>3</v>
       </c>
-      <c r="N25" s="29">
+      <c r="N25" s="38">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="O25" s="62">
+        <v>5</v>
+      </c>
+      <c r="O25" s="29">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P25" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P25" s="62">
+      <c r="Q25" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="62">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="62">
+      <c r="R25" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5191,6 +5191,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="G3:G4"/>
@@ -5207,22 +5223,6 @@
     <mergeCell ref="D2:W2"/>
     <mergeCell ref="X2:AC2"/>
     <mergeCell ref="AD2:AI2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -823,9 +823,27 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,34 +853,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,28 +877,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,88 +1204,88 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="46" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="52" t="s">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="49"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="42"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="50" t="s">
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="50" t="s">
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="Q3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="R3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="50" t="s">
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="48"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="41"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1295,9 +1295,9 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="41"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1307,9 +1307,9 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="41"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="47"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="51"/>
+      <c r="U4" s="46"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2562,10 +2562,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="45"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2641,6 +2641,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="D2:I2"/>
@@ -2656,9 +2659,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2676,7 +2676,7 @@
   <dimension ref="A1:AI27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2705,67 +2705,67 @@
   <sheetData>
     <row r="1" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="46" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="52" t="s">
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="49"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="42"/>
     </row>
     <row r="3" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="56" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="58" t="s">
@@ -2783,7 +2783,7 @@
       <c r="M3" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="N3" s="60" t="s">
         <v>58</v>
       </c>
       <c r="O3" s="60" t="s">
@@ -2792,71 +2792,71 @@
       <c r="P3" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="62" t="s">
+      <c r="R3" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="54" t="s">
+      <c r="S3" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="40" t="s">
+      <c r="T3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="50" t="s">
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="47" t="s">
+      <c r="X3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="40" t="s">
+      <c r="Y3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="40" t="s">
+      <c r="Z3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="50" t="s">
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="42" t="s">
+      <c r="AD3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="40" t="s">
+      <c r="AE3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AF3" s="40" t="s">
+      <c r="AF3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="50" t="s">
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:35" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="48"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="59"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
       <c r="L4" s="59"/>
       <c r="M4" s="59"/>
-      <c r="N4" s="63"/>
+      <c r="N4" s="61"/>
       <c r="O4" s="61"/>
       <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="55"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="57"/>
       <c r="T4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2866,9 +2866,9 @@
       <c r="V4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="51"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="41"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="47"/>
       <c r="Z4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2878,9 +2878,9 @@
       <c r="AB4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="41"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="47"/>
       <c r="AF4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2890,7 +2890,7 @@
       <c r="AH4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="51"/>
+      <c r="AI4" s="46"/>
     </row>
     <row r="5" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2932,10 +2932,10 @@
       <c r="N5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="36" t="s">
+      <c r="O5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="36" t="s">
@@ -3036,10 +3036,10 @@
       <c r="N6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="37" t="s">
+      <c r="O6" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="28" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="37" t="s">
@@ -3140,11 +3140,11 @@
       <c r="N7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="37" t="s">
-        <v>12</v>
+      <c r="O7" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="Q7" s="37" t="s">
         <v>12</v>
@@ -3244,11 +3244,11 @@
       <c r="N8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="37" t="s">
-        <v>12</v>
+      <c r="O8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="Q8" s="37" t="s">
         <v>12</v>
@@ -3348,11 +3348,11 @@
       <c r="N9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="37" t="s">
-        <v>12</v>
+      <c r="O9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="Q9" s="37" t="s">
         <v>12</v>
@@ -3452,11 +3452,11 @@
       <c r="N10" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="37" t="s">
-        <v>12</v>
+      <c r="O10" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="Q10" s="37" t="s">
         <v>12</v>
@@ -3556,11 +3556,11 @@
       <c r="N11" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="37" t="s">
-        <v>12</v>
+      <c r="O11" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="Q11" s="37" t="s">
         <v>12</v>
@@ -3660,10 +3660,10 @@
       <c r="N12" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="37" t="s">
+      <c r="O12" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="28" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="37" t="s">
@@ -3764,11 +3764,11 @@
       <c r="N13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="37" t="s">
-        <v>12</v>
+      <c r="O13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="Q13" s="37" t="s">
         <v>12</v>
@@ -3868,10 +3868,10 @@
       <c r="N14" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="37" t="s">
+      <c r="O14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="28" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="37" t="s">
@@ -3972,10 +3972,10 @@
       <c r="N15" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="37" t="s">
+      <c r="O15" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="28" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="37" t="s">
@@ -4076,10 +4076,10 @@
       <c r="N16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="37" t="s">
+      <c r="O16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="28" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="37" t="s">
@@ -4180,10 +4180,10 @@
       <c r="N17" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="37" t="s">
+      <c r="O17" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="28" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="37" t="s">
@@ -4284,10 +4284,10 @@
       <c r="N18" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="37" t="s">
+      <c r="O18" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="28" t="s">
         <v>12</v>
       </c>
       <c r="Q18" s="37" t="s">
@@ -4388,10 +4388,10 @@
       <c r="N19" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="37" t="s">
+      <c r="O19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="28" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="37" t="s">
@@ -4492,10 +4492,10 @@
       <c r="N20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="37" t="s">
+      <c r="O20" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="28" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="37" t="s">
@@ -4596,10 +4596,10 @@
       <c r="N21" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="37" t="s">
+      <c r="O21" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="28" t="s">
         <v>12</v>
       </c>
       <c r="Q21" s="37" t="s">
@@ -4700,10 +4700,10 @@
       <c r="N22" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O22" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="37" t="s">
+      <c r="O22" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="28" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="37" t="s">
@@ -4804,10 +4804,10 @@
       <c r="N23" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O23" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" s="37" t="s">
+      <c r="O23" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="28" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="37" t="s">
@@ -4908,10 +4908,10 @@
       <c r="N24" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O24" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P24" s="37" t="s">
+      <c r="O24" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="28" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="37" t="s">
@@ -4973,10 +4973,10 @@
       </c>
     </row>
     <row r="25" spans="1:35" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="45"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="32">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>4</v>
@@ -5021,13 +5021,13 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O25" s="29">
+      <c r="O25" s="38">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="P25" s="38">
+      <c r="P25" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="38">
         <f t="shared" si="2"/>
@@ -5191,6 +5191,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:W2"/>
+    <mergeCell ref="X2:AC2"/>
+    <mergeCell ref="AD2:AI2"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:V3"/>
@@ -5207,22 +5223,6 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:W2"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="AD2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -823,27 +823,39 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -853,28 +865,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1204,88 +1204,88 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="40" t="s">
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="42"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="45"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="50"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="48" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="45" t="s">
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="48" t="s">
+      <c r="P3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="Q3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="R3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45" t="s">
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="46" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="51"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="47"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1295,9 +1295,9 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1307,9 +1307,9 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="46"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="51"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="46"/>
+      <c r="U4" s="47"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2562,10 +2562,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="53"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2641,6 +2641,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -2657,8 +2659,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2675,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2705,67 +2705,67 @@
   <sheetData>
     <row r="1" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="43" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="40" t="s">
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="42"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="45"/>
     </row>
     <row r="3" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="50"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="54" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="54" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="58" t="s">
@@ -2789,63 +2789,63 @@
       <c r="O3" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="P3" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="62" t="s">
         <v>61</v>
       </c>
       <c r="R3" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="56" t="s">
+      <c r="S3" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="44" t="s">
+      <c r="T3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="45" t="s">
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="50" t="s">
+      <c r="X3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="44" t="s">
+      <c r="Y3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="44" t="s">
+      <c r="Z3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="45" t="s">
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="48" t="s">
+      <c r="AD3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="44" t="s">
+      <c r="AE3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AF3" s="44" t="s">
+      <c r="AF3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="45" t="s">
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="46" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:35" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="51"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="59"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
@@ -2853,10 +2853,10 @@
       <c r="M4" s="59"/>
       <c r="N4" s="61"/>
       <c r="O4" s="61"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="63"/>
       <c r="R4" s="61"/>
-      <c r="S4" s="57"/>
+      <c r="S4" s="55"/>
       <c r="T4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2866,9 +2866,9 @@
       <c r="V4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="46"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="51"/>
       <c r="Z4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2878,9 +2878,9 @@
       <c r="AB4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="51"/>
       <c r="AF4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2890,7 +2890,7 @@
       <c r="AH4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="46"/>
+      <c r="AI4" s="47"/>
     </row>
     <row r="5" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2935,10 +2935,10 @@
       <c r="O5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="36" t="s">
+      <c r="P5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="R5" s="36" t="s">
@@ -3039,10 +3039,10 @@
       <c r="O6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="37" t="s">
+      <c r="P6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="28" t="s">
         <v>12</v>
       </c>
       <c r="R6" s="37" t="s">
@@ -3143,10 +3143,10 @@
       <c r="O7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="37" t="s">
+      <c r="Q7" s="28" t="s">
         <v>12</v>
       </c>
       <c r="R7" s="37" t="s">
@@ -3247,10 +3247,10 @@
       <c r="O8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="37" t="s">
+      <c r="P8" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="28" t="s">
         <v>12</v>
       </c>
       <c r="R8" s="37" t="s">
@@ -3351,10 +3351,10 @@
       <c r="O9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="37" t="s">
+      <c r="P9" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="28" t="s">
         <v>12</v>
       </c>
       <c r="R9" s="37" t="s">
@@ -3455,10 +3455,10 @@
       <c r="O10" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="37" t="s">
+      <c r="P10" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="28" t="s">
         <v>12</v>
       </c>
       <c r="R10" s="37" t="s">
@@ -3559,10 +3559,10 @@
       <c r="O11" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="28" t="s">
+      <c r="P11" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" s="37" t="s">
+      <c r="Q11" s="28" t="s">
         <v>12</v>
       </c>
       <c r="R11" s="37" t="s">
@@ -3663,10 +3663,10 @@
       <c r="O12" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="37" t="s">
+      <c r="P12" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="28" t="s">
         <v>12</v>
       </c>
       <c r="R12" s="37" t="s">
@@ -3767,11 +3767,11 @@
       <c r="O13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P13" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="37" t="s">
-        <v>12</v>
+      <c r="P13" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="R13" s="37" t="s">
         <v>12</v>
@@ -3871,11 +3871,11 @@
       <c r="O14" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="37" t="s">
-        <v>12</v>
+      <c r="P14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="R14" s="37" t="s">
         <v>12</v>
@@ -3975,11 +3975,11 @@
       <c r="O15" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P15" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="37" t="s">
-        <v>12</v>
+      <c r="P15" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="R15" s="37" t="s">
         <v>12</v>
@@ -4079,10 +4079,10 @@
       <c r="O16" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P16" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="37" t="s">
+      <c r="P16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="28" t="s">
         <v>12</v>
       </c>
       <c r="R16" s="37" t="s">
@@ -4183,10 +4183,10 @@
       <c r="O17" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="37" t="s">
+      <c r="P17" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="28" t="s">
         <v>12</v>
       </c>
       <c r="R17" s="37" t="s">
@@ -4287,10 +4287,10 @@
       <c r="O18" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P18" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="37" t="s">
+      <c r="P18" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="28" t="s">
         <v>12</v>
       </c>
       <c r="R18" s="37" t="s">
@@ -4391,10 +4391,10 @@
       <c r="O19" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="37" t="s">
+      <c r="P19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="28" t="s">
         <v>12</v>
       </c>
       <c r="R19" s="37" t="s">
@@ -4495,10 +4495,10 @@
       <c r="O20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="37" t="s">
+      <c r="P20" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="28" t="s">
         <v>12</v>
       </c>
       <c r="R20" s="37" t="s">
@@ -4599,10 +4599,10 @@
       <c r="O21" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P21" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="37" t="s">
+      <c r="P21" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="28" t="s">
         <v>12</v>
       </c>
       <c r="R21" s="37" t="s">
@@ -4703,10 +4703,10 @@
       <c r="O22" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P22" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="37" t="s">
+      <c r="P22" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="28" t="s">
         <v>12</v>
       </c>
       <c r="R22" s="37" t="s">
@@ -4807,10 +4807,10 @@
       <c r="O23" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P23" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="37" t="s">
+      <c r="P23" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="28" t="s">
         <v>12</v>
       </c>
       <c r="R23" s="37" t="s">
@@ -4911,10 +4911,10 @@
       <c r="O24" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P24" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="37" t="s">
+      <c r="P24" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="28" t="s">
         <v>12</v>
       </c>
       <c r="R24" s="37" t="s">
@@ -4973,10 +4973,10 @@
       </c>
     </row>
     <row r="25" spans="1:35" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="53"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="32">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>4</v>
@@ -5025,13 +5025,13 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="P25" s="29">
+      <c r="P25" s="38">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q25" s="38">
+      <c r="Q25" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R25" s="38">
         <f t="shared" si="2"/>
@@ -5191,6 +5191,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="G3:G4"/>
@@ -5207,22 +5223,6 @@
     <mergeCell ref="D2:W2"/>
     <mergeCell ref="X2:AC2"/>
     <mergeCell ref="AD2:AI2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -823,6 +823,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -853,28 +865,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1204,88 +1204,88 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="42" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="48" t="s">
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="45"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="49"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="43"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="52" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="46" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="46" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="Q3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="R3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="46" t="s">
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="44"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1295,9 +1295,9 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1307,9 +1307,9 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="41"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="47"/>
+      <c r="U4" s="51"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2562,10 +2562,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2641,11 +2641,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="D2:I2"/>
@@ -2659,6 +2654,11 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2676,7 +2676,7 @@
   <dimension ref="A1:AI27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2705,67 +2705,67 @@
   <sheetData>
     <row r="1" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="42" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="48" t="s">
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="45"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="49"/>
     </row>
     <row r="3" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="43"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="56" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="58" t="s">
@@ -2792,60 +2792,60 @@
       <c r="P3" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="60" t="s">
+      <c r="R3" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="54" t="s">
+      <c r="S3" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="46" t="s">
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="43" t="s">
+      <c r="X3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="50" t="s">
+      <c r="Y3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="50" t="s">
+      <c r="Z3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="46" t="s">
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="52" t="s">
+      <c r="AD3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="50" t="s">
+      <c r="AE3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AF3" s="50" t="s">
+      <c r="AF3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="46" t="s">
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:35" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="44"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="59"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
@@ -2854,9 +2854,9 @@
       <c r="N4" s="61"/>
       <c r="O4" s="61"/>
       <c r="P4" s="61"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="55"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="57"/>
       <c r="T4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2866,9 +2866,9 @@
       <c r="V4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="47"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="41"/>
       <c r="Z4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2878,9 +2878,9 @@
       <c r="AB4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="41"/>
       <c r="AF4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2890,7 +2890,7 @@
       <c r="AH4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="47"/>
+      <c r="AI4" s="51"/>
     </row>
     <row r="5" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2938,10 +2938,10 @@
       <c r="P5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="36" t="s">
+      <c r="Q5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="S5" s="31" t="s">
@@ -3042,10 +3042,10 @@
       <c r="P6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="37" t="s">
+      <c r="Q6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="28" t="s">
         <v>12</v>
       </c>
       <c r="S6" s="30" t="s">
@@ -3146,10 +3146,10 @@
       <c r="P7" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="37" t="s">
+      <c r="Q7" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="28" t="s">
         <v>12</v>
       </c>
       <c r="S7" s="30" t="s">
@@ -3250,10 +3250,10 @@
       <c r="P8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="37" t="s">
+      <c r="Q8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="28" t="s">
         <v>12</v>
       </c>
       <c r="S8" s="30" t="s">
@@ -3354,10 +3354,10 @@
       <c r="P9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="37" t="s">
+      <c r="Q9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="28" t="s">
         <v>12</v>
       </c>
       <c r="S9" s="30" t="s">
@@ -3458,10 +3458,10 @@
       <c r="P10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="37" t="s">
+      <c r="Q10" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="28" t="s">
         <v>12</v>
       </c>
       <c r="S10" s="30" t="s">
@@ -3562,11 +3562,11 @@
       <c r="P11" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="37" t="s">
-        <v>12</v>
+      <c r="Q11" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="S11" s="30" t="s">
         <v>12</v>
@@ -3666,10 +3666,10 @@
       <c r="P12" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="37" t="s">
+      <c r="Q12" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="28" t="s">
         <v>12</v>
       </c>
       <c r="S12" s="30" t="s">
@@ -3770,10 +3770,10 @@
       <c r="P13" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="Q13" s="28" t="s">
+      <c r="Q13" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="R13" s="37" t="s">
+      <c r="R13" s="28" t="s">
         <v>12</v>
       </c>
       <c r="S13" s="30" t="s">
@@ -3874,10 +3874,10 @@
       <c r="P14" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="R14" s="37" t="s">
+      <c r="Q14" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="28" t="s">
         <v>12</v>
       </c>
       <c r="S14" s="30" t="s">
@@ -3978,10 +3978,10 @@
       <c r="P15" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="R15" s="37" t="s">
+      <c r="Q15" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="R15" s="28" t="s">
         <v>12</v>
       </c>
       <c r="S15" s="30" t="s">
@@ -4082,10 +4082,10 @@
       <c r="P16" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="37" t="s">
+      <c r="Q16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="28" t="s">
         <v>12</v>
       </c>
       <c r="S16" s="30" t="s">
@@ -4186,11 +4186,11 @@
       <c r="P17" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Q17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="37" t="s">
-        <v>12</v>
+      <c r="Q17" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="S17" s="30" t="s">
         <v>12</v>
@@ -4290,10 +4290,10 @@
       <c r="P18" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Q18" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="37" t="s">
+      <c r="Q18" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="28" t="s">
         <v>12</v>
       </c>
       <c r="S18" s="30" t="s">
@@ -4394,10 +4394,10 @@
       <c r="P19" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Q19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19" s="37" t="s">
+      <c r="Q19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="28" t="s">
         <v>12</v>
       </c>
       <c r="S19" s="30" t="s">
@@ -4498,10 +4498,10 @@
       <c r="P20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Q20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="37" t="s">
+      <c r="Q20" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="28" t="s">
         <v>12</v>
       </c>
       <c r="S20" s="30" t="s">
@@ -4602,10 +4602,10 @@
       <c r="P21" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Q21" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R21" s="37" t="s">
+      <c r="Q21" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="28" t="s">
         <v>12</v>
       </c>
       <c r="S21" s="30" t="s">
@@ -4706,10 +4706,10 @@
       <c r="P22" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Q22" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="37" t="s">
+      <c r="Q22" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="28" t="s">
         <v>12</v>
       </c>
       <c r="S22" s="30" t="s">
@@ -4810,10 +4810,10 @@
       <c r="P23" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Q23" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="37" t="s">
+      <c r="Q23" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="28" t="s">
         <v>12</v>
       </c>
       <c r="S23" s="30" t="s">
@@ -4914,10 +4914,10 @@
       <c r="P24" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Q24" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="37" t="s">
+      <c r="Q24" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="28" t="s">
         <v>12</v>
       </c>
       <c r="S24" s="30" t="s">
@@ -4973,10 +4973,10 @@
       </c>
     </row>
     <row r="25" spans="1:35" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="32">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>4</v>
@@ -5029,13 +5029,13 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q25" s="29">
+      <c r="Q25" s="38">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="R25" s="38">
+      <c r="R25" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S25" s="33">
         <f t="shared" si="1"/>
@@ -5191,6 +5191,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:W2"/>
+    <mergeCell ref="X2:AC2"/>
+    <mergeCell ref="AD2:AI2"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:V3"/>
@@ -5207,22 +5223,6 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:W2"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="AD2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="71">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,35 @@
   <si>
     <t>9/8
 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/19
+(화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/20
+(수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/21
+(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/22
+(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/25
+(월)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,13 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,6 +840,81 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,81 +922,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,88 +1233,88 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="46" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="52" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="49"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="39"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="47"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="50" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="50" t="s">
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="Q3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="R3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="50" t="s">
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="48"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1295,9 +1324,9 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="51"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="48"/>
-      <c r="K4" s="41"/>
+      <c r="K4" s="44"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1307,9 +1336,9 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="41"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="44"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1348,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="51"/>
+      <c r="U4" s="43"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2562,10 +2591,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="45"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2641,6 +2670,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="D2:I2"/>
@@ -2656,9 +2688,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2673,10 +2702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI27"/>
+  <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2686,213 +2715,238 @@
     <col min="4" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="4.875" customWidth="1"/>
-    <col min="19" max="19" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="4.875" customWidth="1"/>
+    <col min="24" max="24" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+    <row r="1" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="46" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="52" t="s">
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="49"/>
-    </row>
-    <row r="3" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
+    </row>
+    <row r="3" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="47"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="O3" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="60" t="s">
+      <c r="P3" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="62" t="s">
+      <c r="R3" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="56" t="s">
+      <c r="S3" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="40" t="s">
+      <c r="T3" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="X3" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="50" t="s">
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="47" t="s">
+      <c r="AC3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="40" t="s">
+      <c r="AD3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="40" t="s">
+      <c r="AE3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="50" t="s">
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="42" t="s">
+      <c r="AI3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="40" t="s">
+      <c r="AJ3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AF3" s="40" t="s">
+      <c r="AK3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="50" t="s">
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:35" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:40" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="48"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="5" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="51"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="5" t="s">
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AG4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="5" t="s">
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AL4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AM4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="51"/>
-    </row>
-    <row r="5" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN4" s="43"/>
+    </row>
+    <row r="5" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -2914,52 +2968,52 @@
       <c r="H5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="36" t="s">
+      <c r="I5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="6" t="s">
+      <c r="O5" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="31" t="s">
         <v>12</v>
       </c>
       <c r="Y5" s="7" t="s">
@@ -2971,13 +3025,13 @@
       <c r="AA5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AB5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AB5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AE5" s="7" t="s">
@@ -2989,14 +3043,29 @@
       <c r="AG5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI5" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN5" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -3018,52 +3087,52 @@
       <c r="H6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="9" t="s">
+      <c r="I6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y6" s="10" t="s">
@@ -3075,13 +3144,13 @@
       <c r="AA6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD6" s="9" t="s">
+      <c r="AB6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE6" s="10" t="s">
@@ -3093,14 +3162,29 @@
       <c r="AG6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI6" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN6" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>3</v>
       </c>
@@ -3122,52 +3206,52 @@
       <c r="H7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="37" t="s">
+      <c r="I7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X7" s="9" t="s">
+      <c r="Q7" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y7" s="10" t="s">
@@ -3179,13 +3263,13 @@
       <c r="AA7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD7" s="9" t="s">
+      <c r="AB7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE7" s="10" t="s">
@@ -3197,14 +3281,29 @@
       <c r="AG7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI7" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>4</v>
       </c>
@@ -3226,52 +3325,52 @@
       <c r="H8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X8" s="9" t="s">
+      <c r="J8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y8" s="10" t="s">
@@ -3283,13 +3382,13 @@
       <c r="AA8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD8" s="9" t="s">
+      <c r="AB8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE8" s="10" t="s">
@@ -3301,14 +3400,29 @@
       <c r="AG8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI8" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN8" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -3330,52 +3444,52 @@
       <c r="H9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X9" s="9" t="s">
+      <c r="I9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X9" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y9" s="10" t="s">
@@ -3387,13 +3501,13 @@
       <c r="AA9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD9" s="9" t="s">
+      <c r="AB9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE9" s="10" t="s">
@@ -3405,14 +3519,29 @@
       <c r="AG9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI9" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN9" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>6</v>
       </c>
@@ -3434,52 +3563,52 @@
       <c r="H10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X10" s="9" t="s">
+      <c r="I10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y10" s="10" t="s">
@@ -3491,13 +3620,13 @@
       <c r="AA10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD10" s="9" t="s">
+      <c r="AB10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE10" s="10" t="s">
@@ -3509,14 +3638,29 @@
       <c r="AG10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI10" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN10" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>7</v>
       </c>
@@ -3538,52 +3682,52 @@
       <c r="H11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="37" t="s">
+      <c r="I11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="S11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X11" s="9" t="s">
+      <c r="Q11" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y11" s="10" t="s">
@@ -3595,13 +3739,13 @@
       <c r="AA11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD11" s="9" t="s">
+      <c r="AB11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE11" s="10" t="s">
@@ -3613,14 +3757,29 @@
       <c r="AG11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI11" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN11" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>8</v>
       </c>
@@ -3642,52 +3801,52 @@
       <c r="H12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="35" t="s">
+      <c r="I12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X12" s="9" t="s">
+      <c r="M12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X12" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y12" s="10" t="s">
@@ -3699,13 +3858,13 @@
       <c r="AA12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD12" s="9" t="s">
+      <c r="AB12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE12" s="10" t="s">
@@ -3717,14 +3876,29 @@
       <c r="AG12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI12" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN12" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>9</v>
       </c>
@@ -3746,52 +3920,52 @@
       <c r="H13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="37" t="s">
+      <c r="I13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="R13" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X13" s="9" t="s">
+      <c r="R13" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X13" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y13" s="10" t="s">
@@ -3803,13 +3977,13 @@
       <c r="AA13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD13" s="9" t="s">
+      <c r="AB13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE13" s="10" t="s">
@@ -3821,14 +3995,29 @@
       <c r="AG13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI13" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>10</v>
       </c>
@@ -3850,52 +4039,52 @@
       <c r="H14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="35" t="s">
+      <c r="I14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="R14" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X14" s="9" t="s">
+      <c r="L14" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y14" s="10" t="s">
@@ -3907,13 +4096,13 @@
       <c r="AA14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD14" s="9" t="s">
+      <c r="AB14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE14" s="10" t="s">
@@ -3925,14 +4114,29 @@
       <c r="AG14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI14" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN14" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>11</v>
       </c>
@@ -3954,52 +4158,52 @@
       <c r="H15" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="R15" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X15" s="9" t="s">
+      <c r="I15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="R15" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X15" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y15" s="10" t="s">
@@ -4011,13 +4215,13 @@
       <c r="AA15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD15" s="9" t="s">
+      <c r="AB15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE15" s="10" t="s">
@@ -4029,14 +4233,29 @@
       <c r="AG15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI15" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN15" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>12</v>
       </c>
@@ -4058,52 +4277,52 @@
       <c r="H16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" s="9" t="s">
+      <c r="I16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y16" s="10" t="s">
@@ -4115,13 +4334,13 @@
       <c r="AA16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD16" s="9" t="s">
+      <c r="AB16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE16" s="10" t="s">
@@ -4133,14 +4352,29 @@
       <c r="AG16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI16" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN16" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>13</v>
       </c>
@@ -4162,52 +4396,52 @@
       <c r="H17" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N17" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="S17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X17" s="9" t="s">
+      <c r="I17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y17" s="10" t="s">
@@ -4219,13 +4453,13 @@
       <c r="AA17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD17" s="9" t="s">
+      <c r="AB17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE17" s="10" t="s">
@@ -4237,14 +4471,29 @@
       <c r="AG17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI17" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN17" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>14</v>
       </c>
@@ -4266,52 +4515,52 @@
       <c r="H18" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N18" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X18" s="9" t="s">
+      <c r="I18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="T18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X18" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y18" s="10" t="s">
@@ -4323,13 +4572,13 @@
       <c r="AA18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD18" s="9" t="s">
+      <c r="AB18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE18" s="10" t="s">
@@ -4341,14 +4590,29 @@
       <c r="AG18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI18" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN18" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>15</v>
       </c>
@@ -4370,52 +4634,52 @@
       <c r="H19" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X19" s="9" t="s">
+      <c r="I19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X19" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y19" s="10" t="s">
@@ -4427,13 +4691,13 @@
       <c r="AA19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD19" s="9" t="s">
+      <c r="AB19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE19" s="10" t="s">
@@ -4445,14 +4709,29 @@
       <c r="AG19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI19" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN19" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>16</v>
       </c>
@@ -4474,52 +4753,52 @@
       <c r="H20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S20" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X20" s="9" t="s">
+      <c r="I20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X20" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y20" s="10" t="s">
@@ -4531,13 +4810,13 @@
       <c r="AA20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD20" s="9" t="s">
+      <c r="AB20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE20" s="10" t="s">
@@ -4549,14 +4828,29 @@
       <c r="AG20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI20" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN20" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>17</v>
       </c>
@@ -4578,52 +4872,52 @@
       <c r="H21" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="O21" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R21" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X21" s="9" t="s">
+      <c r="I21" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="T21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X21" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y21" s="10" t="s">
@@ -4635,13 +4929,13 @@
       <c r="AA21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD21" s="9" t="s">
+      <c r="AB21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE21" s="10" t="s">
@@ -4653,14 +4947,29 @@
       <c r="AG21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI21" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN21" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>18</v>
       </c>
@@ -4682,52 +4991,52 @@
       <c r="H22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W22" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X22" s="9" t="s">
+      <c r="I22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="T22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X22" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y22" s="10" t="s">
@@ -4739,13 +5048,13 @@
       <c r="AA22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC22" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD22" s="9" t="s">
+      <c r="AB22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE22" s="10" t="s">
@@ -4757,14 +5066,29 @@
       <c r="AG22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI22" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN22" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>19</v>
       </c>
@@ -4786,52 +5110,52 @@
       <c r="H23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="O23" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S23" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X23" s="9" t="s">
+      <c r="I23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X23" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y23" s="10" t="s">
@@ -4843,13 +5167,13 @@
       <c r="AA23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD23" s="9" t="s">
+      <c r="AB23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD23" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AE23" s="10" t="s">
@@ -4861,14 +5185,29 @@
       <c r="AG23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AH23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI23" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN23" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="14">
         <v>20</v>
       </c>
@@ -4890,52 +5229,52 @@
       <c r="H24" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="O24" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="P24" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="X24" s="16" t="s">
+      <c r="I24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S24" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="V24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X24" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Y24" s="17" t="s">
@@ -4947,13 +5286,13 @@
       <c r="AA24" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AB24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD24" s="16" t="s">
+      <c r="AB24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD24" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AE24" s="17" t="s">
@@ -4965,18 +5304,33 @@
       <c r="AG24" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AH24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI24" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="44" t="s">
+      <c r="AH24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN24" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="45"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="32">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>4</v>
@@ -4986,7 +5340,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="33">
-        <f t="shared" ref="F25:S25" si="1">COUNTIF(F5:F24,"○")</f>
+        <f t="shared" ref="F25:X25" si="1">COUNTIF(F5:F24,"○")</f>
         <v>5</v>
       </c>
       <c r="G25" s="33">
@@ -4994,75 +5348,75 @@
         <v>4</v>
       </c>
       <c r="H25" s="33">
-        <f t="shared" ref="H25:R25" si="2">COUNTIF(H5:H24,"○")</f>
+        <f t="shared" ref="H25:W25" si="2">COUNTIF(H5:H24,"○")</f>
         <v>4</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="33">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="33">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="33">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="33">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="33">
         <f t="shared" ref="M25" si="3">COUNTIF(M5:M24,"○")</f>
         <v>3</v>
       </c>
-      <c r="N25" s="38">
+      <c r="N25" s="63">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O25" s="38">
+      <c r="O25" s="63">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="P25" s="38">
+      <c r="P25" s="63">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q25" s="38">
+      <c r="Q25" s="63">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="R25" s="29">
+      <c r="R25" s="63">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S25" s="33">
+      <c r="S25" s="29">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T25" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T25" s="20">
-        <f t="shared" ref="T25:AI25" si="4">COUNTIF(T5:T24,"○")</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="Y25" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="Y25:AN25" si="4">COUNTIF(Y5:Y24,"○")</f>
         <v>0</v>
       </c>
       <c r="Z25" s="20">
@@ -5073,15 +5427,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="20">
+      <c r="AB25" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="23">
+      <c r="AC25" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD25" s="22">
+      <c r="AD25" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5097,16 +5451,36 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH25" s="20">
+      <c r="AH25" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI25" s="21">
+      <c r="AI25" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" ht="36" x14ac:dyDescent="0.3">
+      <c r="AJ25" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM25" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN25" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" ht="36" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="25" t="s">
         <v>40</v>
@@ -5146,8 +5520,13 @@
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
       <c r="AI26" s="25"/>
-    </row>
-    <row r="27" spans="1:35" ht="60" x14ac:dyDescent="0.3">
+      <c r="AJ26" s="25"/>
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="25"/>
+      <c r="AN26" s="25"/>
+    </row>
+    <row r="27" spans="1:40" ht="60" x14ac:dyDescent="0.3">
       <c r="B27" s="25" t="s">
         <v>49</v>
       </c>
@@ -5188,30 +5567,24 @@
       <c r="AG27" s="25"/>
       <c r="AH27" s="25"/>
       <c r="AI27" s="25"/>
+      <c r="AJ27" s="25"/>
+      <c r="AK27" s="25"/>
+      <c r="AL27" s="25"/>
+      <c r="AM27" s="25"/>
+      <c r="AN27" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:AB3"/>
+  <mergeCells count="37">
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:W2"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="AD2:AI2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
@@ -5223,10 +5596,26 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="M3:M4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AI2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:AI24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:AN24">
       <formula1>"×,○,△"</formula1>
     </dataValidation>
   </dataValidations>

--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="72">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,6 +323,10 @@
   <si>
     <t>9/25
 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로젝트 리뷰체크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -843,27 +847,48 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -873,16 +898,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -891,37 +922,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1233,88 +1237,88 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="37" t="s">
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="39"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="45"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="45" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42" t="s">
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="42" t="s">
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="46" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="48"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1324,9 +1328,9 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="44"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1336,9 +1340,9 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="44"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="51"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1348,7 +1352,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="43"/>
+      <c r="U4" s="47"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2591,10 +2595,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2670,6 +2674,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -2686,8 +2692,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2704,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2734,183 +2738,183 @@
   <sheetData>
     <row r="1" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="40" t="s">
+      <c r="D2" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="39"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="59" t="s">
+      <c r="N3" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="59" t="s">
+      <c r="O3" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="59" t="s">
+      <c r="P3" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="59" t="s">
+      <c r="Q3" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="59" t="s">
+      <c r="R3" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="57" t="s">
+      <c r="S3" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="55" t="s">
+      <c r="T3" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="55" t="s">
+      <c r="U3" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="V3" s="55" t="s">
+      <c r="V3" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="W3" s="55" t="s">
+      <c r="W3" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="X3" s="51" t="s">
+      <c r="X3" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="41" t="s">
+      <c r="Y3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="42" t="s">
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" s="47" t="s">
+      <c r="AC3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="41" t="s">
+      <c r="AD3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="41" t="s">
+      <c r="AE3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="42" t="s">
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AI3" s="45" t="s">
+      <c r="AI3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AJ3" s="41" t="s">
+      <c r="AJ3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" s="41" t="s">
+      <c r="AK3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42" t="s">
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="46" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:40" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="48"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="52"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="61"/>
       <c r="Y4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2920,9 +2924,9 @@
       <c r="AA4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="44"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="51"/>
       <c r="AE4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2932,9 +2936,9 @@
       <c r="AG4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="44"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="51"/>
       <c r="AK4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2944,7 +2948,7 @@
       <c r="AM4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AN4" s="43"/>
+      <c r="AN4" s="47"/>
     </row>
     <row r="5" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2983,25 +2987,25 @@
       <c r="M5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="61" t="s">
+      <c r="N5" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="34" t="s">
+      <c r="O5" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="U5" s="34" t="s">
@@ -3102,25 +3106,25 @@
       <c r="M6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="35" t="s">
+      <c r="N6" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="28" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="35" t="s">
@@ -3221,25 +3225,25 @@
       <c r="M7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="62" t="s">
+      <c r="N7" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" s="35" t="s">
+      <c r="Q7" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="28" t="s">
         <v>12</v>
       </c>
       <c r="U7" s="35" t="s">
@@ -3340,25 +3344,25 @@
       <c r="M8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" s="35" t="s">
+      <c r="N8" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="28" t="s">
         <v>12</v>
       </c>
       <c r="U8" s="35" t="s">
@@ -3459,25 +3463,25 @@
       <c r="M9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T9" s="35" t="s">
+      <c r="N9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="28" t="s">
         <v>12</v>
       </c>
       <c r="U9" s="35" t="s">
@@ -3578,25 +3582,25 @@
       <c r="M10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T10" s="35" t="s">
+      <c r="N10" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="28" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="35" t="s">
@@ -3697,25 +3701,25 @@
       <c r="M11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="62" t="s">
+      <c r="N11" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="S11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T11" s="35" t="s">
+      <c r="Q11" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="28" t="s">
         <v>12</v>
       </c>
       <c r="U11" s="35" t="s">
@@ -3816,25 +3820,25 @@
       <c r="M12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T12" s="35" t="s">
+      <c r="N12" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="28" t="s">
         <v>12</v>
       </c>
       <c r="U12" s="35" t="s">
@@ -3935,26 +3939,26 @@
       <c r="M13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="62" t="s">
+      <c r="N13" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="R13" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T13" s="35" t="s">
-        <v>12</v>
+      <c r="R13" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="U13" s="35" t="s">
         <v>12</v>
@@ -4054,25 +4058,25 @@
       <c r="M14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="R14" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T14" s="35" t="s">
+      <c r="N14" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="28" t="s">
         <v>12</v>
       </c>
       <c r="U14" s="35" t="s">
@@ -4173,25 +4177,25 @@
       <c r="M15" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="R15" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T15" s="35" t="s">
+      <c r="N15" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" s="28" t="s">
         <v>12</v>
       </c>
       <c r="U15" s="35" t="s">
@@ -4292,25 +4296,25 @@
       <c r="M16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="35" t="s">
+      <c r="N16" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="28" t="s">
         <v>12</v>
       </c>
       <c r="U16" s="35" t="s">
@@ -4411,25 +4415,25 @@
       <c r="M17" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="S17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17" s="35" t="s">
+      <c r="N17" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="28" t="s">
         <v>12</v>
       </c>
       <c r="U17" s="35" t="s">
@@ -4530,25 +4534,25 @@
       <c r="M18" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="T18" s="35" t="s">
+      <c r="N18" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="T18" s="28" t="s">
         <v>12</v>
       </c>
       <c r="U18" s="35" t="s">
@@ -4649,26 +4653,26 @@
       <c r="M19" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T19" s="35" t="s">
-        <v>12</v>
+      <c r="N19" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="U19" s="35" t="s">
         <v>12</v>
@@ -4768,25 +4772,25 @@
       <c r="M20" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S20" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="T20" s="35" t="s">
+      <c r="N20" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="28" t="s">
         <v>12</v>
       </c>
       <c r="U20" s="35" t="s">
@@ -4887,25 +4891,25 @@
       <c r="M21" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="O21" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="R21" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S21" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="T21" s="35" t="s">
+      <c r="N21" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="T21" s="28" t="s">
         <v>12</v>
       </c>
       <c r="U21" s="35" t="s">
@@ -5006,26 +5010,26 @@
       <c r="M22" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N22" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S22" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="T22" s="35" t="s">
-        <v>12</v>
+      <c r="N22" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="T22" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="U22" s="35" t="s">
         <v>12</v>
@@ -5125,26 +5129,26 @@
       <c r="M23" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N23" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="O23" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S23" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T23" s="35" t="s">
-        <v>12</v>
+      <c r="N23" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T23" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="U23" s="35" t="s">
         <v>12</v>
@@ -5244,26 +5248,26 @@
       <c r="M24" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="O24" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P24" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S24" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T24" s="35" t="s">
-        <v>12</v>
+      <c r="N24" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T24" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="U24" s="35" t="s">
         <v>12</v>
@@ -5327,10 +5331,10 @@
       </c>
     </row>
     <row r="25" spans="1:40" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="32">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>4</v>
@@ -5371,33 +5375,33 @@
         <f t="shared" ref="M25" si="3">COUNTIF(M5:M24,"○")</f>
         <v>3</v>
       </c>
-      <c r="N25" s="63">
+      <c r="N25" s="39">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O25" s="63">
+      <c r="O25" s="39">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="P25" s="63">
+      <c r="P25" s="39">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q25" s="63">
+      <c r="Q25" s="39">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="R25" s="63">
+      <c r="R25" s="39">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S25" s="29">
+      <c r="S25" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="T25" s="36">
+      <c r="T25" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U25" s="36">
         <f t="shared" si="2"/>
@@ -5575,11 +5579,22 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AI2:AN2"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:AA3"/>
@@ -5596,22 +5611,11 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:AB2"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -856,6 +856,18 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -886,46 +898,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1237,88 +1237,88 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="42" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="48" t="s">
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="45"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="49"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="43"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="52" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="46" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="46" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="Q3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="R3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="46" t="s">
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="44"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1328,9 +1328,9 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1340,9 +1340,9 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="41"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="47"/>
+      <c r="U4" s="51"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2595,10 +2595,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2674,11 +2674,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="D2:I2"/>
@@ -2692,6 +2687,11 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2708,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2738,183 +2738,183 @@
   <sheetData>
     <row r="1" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="42" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="48" t="s">
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="45"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="43"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="58" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="N3" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="62" t="s">
+      <c r="O3" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="P3" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="62" t="s">
+      <c r="R3" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="56" t="s">
+      <c r="S3" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="54" t="s">
+      <c r="T3" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="56" t="s">
+      <c r="U3" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="V3" s="56" t="s">
+      <c r="V3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="W3" s="56" t="s">
+      <c r="W3" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="X3" s="60" t="s">
+      <c r="X3" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="50" t="s">
+      <c r="Y3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="46" t="s">
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" s="43" t="s">
+      <c r="AC3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="50" t="s">
+      <c r="AD3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="50" t="s">
+      <c r="AE3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="46" t="s">
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AI3" s="52" t="s">
+      <c r="AI3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AJ3" s="50" t="s">
+      <c r="AJ3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" s="50" t="s">
+      <c r="AK3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="46" t="s">
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:40" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="44"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="61"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="55"/>
       <c r="Y4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2924,9 +2924,9 @@
       <c r="AA4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="41"/>
       <c r="AE4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2936,9 +2936,9 @@
       <c r="AG4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="41"/>
       <c r="AK4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2948,7 +2948,7 @@
       <c r="AM4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AN4" s="47"/>
+      <c r="AN4" s="51"/>
     </row>
     <row r="5" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -3005,10 +3005,10 @@
       <c r="S5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="34" t="s">
+      <c r="T5" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="V5" s="34" t="s">
@@ -3124,11 +3124,11 @@
       <c r="S6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="35" t="s">
-        <v>12</v>
+      <c r="T6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="V6" s="35" t="s">
         <v>12</v>
@@ -3243,10 +3243,10 @@
       <c r="S7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="U7" s="35" t="s">
+      <c r="T7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="28" t="s">
         <v>12</v>
       </c>
       <c r="V7" s="35" t="s">
@@ -3362,10 +3362,10 @@
       <c r="S8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="U8" s="35" t="s">
+      <c r="T8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="28" t="s">
         <v>12</v>
       </c>
       <c r="V8" s="35" t="s">
@@ -3481,10 +3481,10 @@
       <c r="S9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="U9" s="35" t="s">
+      <c r="T9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="28" t="s">
         <v>12</v>
       </c>
       <c r="V9" s="35" t="s">
@@ -3600,10 +3600,10 @@
       <c r="S10" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T10" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="U10" s="35" t="s">
+      <c r="T10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="28" t="s">
         <v>12</v>
       </c>
       <c r="V10" s="35" t="s">
@@ -3719,11 +3719,11 @@
       <c r="S11" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="U11" s="35" t="s">
-        <v>12</v>
+      <c r="T11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="V11" s="35" t="s">
         <v>12</v>
@@ -3838,10 +3838,10 @@
       <c r="S12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T12" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="U12" s="35" t="s">
+      <c r="T12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" s="28" t="s">
         <v>12</v>
       </c>
       <c r="V12" s="35" t="s">
@@ -3957,10 +3957,10 @@
       <c r="S13" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="U13" s="35" t="s">
+      <c r="T13" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13" s="28" t="s">
         <v>12</v>
       </c>
       <c r="V13" s="35" t="s">
@@ -4076,10 +4076,10 @@
       <c r="S14" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T14" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="U14" s="35" t="s">
+      <c r="T14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="28" t="s">
         <v>12</v>
       </c>
       <c r="V14" s="35" t="s">
@@ -4195,11 +4195,11 @@
       <c r="S15" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T15" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="U15" s="35" t="s">
-        <v>12</v>
+      <c r="T15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U15" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="V15" s="35" t="s">
         <v>12</v>
@@ -4314,10 +4314,10 @@
       <c r="S16" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T16" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="U16" s="35" t="s">
+      <c r="T16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="28" t="s">
         <v>12</v>
       </c>
       <c r="V16" s="35" t="s">
@@ -4433,10 +4433,10 @@
       <c r="S17" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="U17" s="35" t="s">
+      <c r="T17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="28" t="s">
         <v>12</v>
       </c>
       <c r="V17" s="35" t="s">
@@ -4552,10 +4552,10 @@
       <c r="S18" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="T18" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="U18" s="35" t="s">
+      <c r="T18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U18" s="28" t="s">
         <v>12</v>
       </c>
       <c r="V18" s="35" t="s">
@@ -4671,10 +4671,10 @@
       <c r="S19" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T19" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="U19" s="35" t="s">
+      <c r="T19" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="U19" s="28" t="s">
         <v>12</v>
       </c>
       <c r="V19" s="35" t="s">
@@ -4790,10 +4790,10 @@
       <c r="S20" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="T20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="U20" s="35" t="s">
+      <c r="T20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" s="28" t="s">
         <v>12</v>
       </c>
       <c r="V20" s="35" t="s">
@@ -4909,11 +4909,11 @@
       <c r="S21" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="T21" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="U21" s="35" t="s">
-        <v>12</v>
+      <c r="T21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U21" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="V21" s="35" t="s">
         <v>12</v>
@@ -5028,11 +5028,11 @@
       <c r="S22" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="T22" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="U22" s="35" t="s">
-        <v>12</v>
+      <c r="T22" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="U22" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="V22" s="35" t="s">
         <v>12</v>
@@ -5147,10 +5147,10 @@
       <c r="S23" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T23" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="U23" s="35" t="s">
+      <c r="T23" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="U23" s="28" t="s">
         <v>12</v>
       </c>
       <c r="V23" s="35" t="s">
@@ -5266,10 +5266,10 @@
       <c r="S24" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T24" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="U24" s="35" t="s">
+      <c r="T24" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="U24" s="28" t="s">
         <v>12</v>
       </c>
       <c r="V24" s="35" t="s">
@@ -5331,10 +5331,10 @@
       </c>
     </row>
     <row r="25" spans="1:40" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="32">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>4</v>
@@ -5399,13 +5399,13 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="T25" s="29">
+      <c r="T25" s="36">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="U25" s="29">
         <f t="shared" si="2"/>
         <v>5</v>
-      </c>
-      <c r="U25" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
       <c r="V25" s="36">
         <f t="shared" si="2"/>
@@ -5579,6 +5579,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="AN3:AN4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="G3:G4"/>
@@ -5595,27 +5616,6 @@
     <mergeCell ref="D2:AB2"/>
     <mergeCell ref="AC2:AH2"/>
     <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/999.학생자료/FED_RF_2023_관리.xlsx
+++ b/999.학생자료/FED_RF_2023_관리.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="74">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,12 +321,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9/25
-(월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 프로젝트 리뷰체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이드
+문서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 파트 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰
+회차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,8 +422,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -729,13 +744,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,15 +973,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,30 +982,39 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,64 +1024,169 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1237,86 +1498,86 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="46" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="52" t="s">
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="49"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="36"/>
     </row>
     <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="50" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="50" t="s">
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39" t="s">
         <v>9</v>
       </c>
       <c r="P3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="Q3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="R3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="50" t="s">
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="48"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="43"/>
       <c r="E4" s="41"/>
       <c r="F4" s="5" t="s">
@@ -1328,8 +1589,8 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="48"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="41"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
@@ -1340,7 +1601,7 @@
       <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="51"/>
+      <c r="O4" s="40"/>
       <c r="P4" s="43"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="5" t="s">
@@ -1352,7 +1613,7 @@
       <c r="T4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="51"/>
+      <c r="U4" s="40"/>
     </row>
     <row r="5" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2595,10 +2856,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="45"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="22">
         <f>COUNTIF(D5:D24,"○")</f>
         <v>20</v>
@@ -2674,6 +2935,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="D2:I2"/>
@@ -2689,9 +2953,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2708,22 +2969,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="4.875" customWidth="1"/>
-    <col min="24" max="24" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="24" width="4.875" customWidth="1"/>
     <col min="25" max="26" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="5.25" bestFit="1" customWidth="1"/>
@@ -2737,195 +2997,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+    <row r="2" spans="2:40" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
+    </row>
+    <row r="3" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="44"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="49"/>
-    </row>
-    <row r="3" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="U3" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="V3" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="W3" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="X3" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y3" s="40" t="s">
+      <c r="AC3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD3" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE3" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="50" t="s">
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="39" t="s">
         <v>9</v>
       </c>
       <c r="AI3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AJ3" s="40" t="s">
+      <c r="AJ3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" s="40" t="s">
+      <c r="AK3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="50" t="s">
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:40" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="48"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="59"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
       <c r="O4" s="59"/>
       <c r="P4" s="59"/>
       <c r="Q4" s="59"/>
       <c r="R4" s="59"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="5" t="s">
+      <c r="S4" s="59"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AA4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="48"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="45"/>
       <c r="AD4" s="41"/>
       <c r="AE4" s="5" t="s">
         <v>6</v>
@@ -2936,7 +3198,7 @@
       <c r="AG4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="51"/>
+      <c r="AH4" s="40"/>
       <c r="AI4" s="43"/>
       <c r="AJ4" s="41"/>
       <c r="AK4" s="5" t="s">
@@ -2948,7 +3210,7 @@
       <c r="AM4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AN4" s="51"/>
+      <c r="AN4" s="40"/>
     </row>
     <row r="5" spans="2:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -2957,71 +3219,72 @@
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="37" t="s">
+      <c r="D5" s="2">
+        <f>COUNTIF(E5:X5,"○")</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="U5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="34" t="s">
+      <c r="P5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="W5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>12</v>
+      <c r="X5" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="61" t="s">
+        <v>13</v>
       </c>
       <c r="Z5" s="7" t="s">
         <v>12</v>
@@ -3076,74 +3339,75 @@
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="V6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="10" t="s">
-        <v>12</v>
+      <c r="D6" s="4">
+        <f>COUNTIF(E6:X6,"○")</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA6" s="10" t="s">
         <v>12</v>
@@ -3195,71 +3459,72 @@
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="38" t="s">
+      <c r="D7" s="4">
+        <f>COUNTIF(E7:X7,"○")</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="U7" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="V7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y7" s="10" t="s">
-        <v>12</v>
+      <c r="R7" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z7" s="10" t="s">
         <v>12</v>
@@ -3314,71 +3579,72 @@
       <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="30" t="s">
+      <c r="D8" s="4">
+        <f>COUNTIF(E8:X8,"○")</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="U8" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="V8" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W8" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y8" s="10" t="s">
-        <v>12</v>
+      <c r="K8" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z8" s="10" t="s">
         <v>12</v>
@@ -3433,71 +3699,72 @@
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="U9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="V9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X9" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y9" s="10" t="s">
-        <v>12</v>
+      <c r="D9" s="4">
+        <f>COUNTIF(E9:X9,"○")</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="X9" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z9" s="10" t="s">
         <v>12</v>
@@ -3552,71 +3819,72 @@
       <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="U10" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="V10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>12</v>
+      <c r="D10" s="4">
+        <f>COUNTIF(E10:X10,"○")</f>
+        <v>4</v>
+      </c>
+      <c r="E10" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="X10" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y10" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z10" s="10" t="s">
         <v>12</v>
@@ -3671,71 +3939,72 @@
       <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="38" t="s">
+      <c r="D11" s="4">
+        <f>COUNTIF(E11:X11,"○")</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="S11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="U11" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="V11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>12</v>
+      <c r="R11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="W11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z11" s="10" t="s">
         <v>12</v>
@@ -3790,71 +4059,72 @@
       <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="30" t="s">
+      <c r="D12" s="4">
+        <f>COUNTIF(E12:X12,"○")</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="30" t="s">
+      <c r="G12" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T12" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="U12" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W12" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y12" s="10" t="s">
-        <v>12</v>
+      <c r="N12" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="X12" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z12" s="10" t="s">
         <v>12</v>
@@ -3909,71 +4179,72 @@
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="30" t="s">
+      <c r="D13" s="4">
+        <f>COUNTIF(E13:X13,"○")</f>
+        <v>5</v>
+      </c>
+      <c r="E13" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="G13" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="38" t="s">
+      <c r="H13" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="R13" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T13" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="U13" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="V13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y13" s="10" t="s">
-        <v>12</v>
+      <c r="S13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z13" s="10" t="s">
         <v>12</v>
@@ -4028,71 +4299,72 @@
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="30" t="s">
+      <c r="D14" s="4">
+        <f>COUNTIF(E14:X14,"○")</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="R14" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T14" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="U14" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="V14" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W14" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y14" s="10" t="s">
-        <v>12</v>
+      <c r="M14" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V14" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y14" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z14" s="10" t="s">
         <v>12</v>
@@ -4147,71 +4419,72 @@
       <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="R15" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T15" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="U15" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="V15" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W15" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y15" s="10" t="s">
-        <v>12</v>
+      <c r="D15" s="4">
+        <f>COUNTIF(E15:X15,"○")</f>
+        <v>5</v>
+      </c>
+      <c r="E15" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U15" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="W15" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z15" s="10" t="s">
         <v>12</v>
@@ -4266,71 +4539,72 @@
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="U16" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="V16" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W16" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y16" s="10" t="s">
-        <v>12</v>
+      <c r="D16" s="4">
+        <f>COUNTIF(E16:X16,"○")</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z16" s="10" t="s">
         <v>12</v>
@@ -4385,71 +4659,72 @@
       <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="N17" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="S17" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="U17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="V17" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W17" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y17" s="10" t="s">
-        <v>12</v>
+      <c r="D17" s="4">
+        <f>COUNTIF(E17:X17,"○")</f>
+        <v>3</v>
+      </c>
+      <c r="E17" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="T17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z17" s="10" t="s">
         <v>12</v>
@@ -4504,71 +4779,72 @@
       <c r="C18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="N18" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="T18" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="U18" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="V18" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W18" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X18" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y18" s="10" t="s">
-        <v>12</v>
+      <c r="D18" s="4">
+        <f>COUNTIF(E18:X18,"○")</f>
+        <v>4</v>
+      </c>
+      <c r="E18" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="U18" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="W18" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="X18" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y18" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z18" s="10" t="s">
         <v>12</v>
@@ -4623,71 +4899,72 @@
       <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S19" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T19" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="U19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="V19" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W19" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y19" s="10" t="s">
-        <v>12</v>
+      <c r="D19" s="4">
+        <f>COUNTIF(E19:X19,"○")</f>
+        <v>4</v>
+      </c>
+      <c r="E19" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U19" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="W19" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="X19" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y19" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z19" s="10" t="s">
         <v>12</v>
@@ -4742,71 +5019,72 @@
       <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S20" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="T20" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="U20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="V20" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W20" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X20" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y20" s="10" t="s">
-        <v>12</v>
+      <c r="D20" s="4">
+        <f>COUNTIF(E20:X20,"○")</f>
+        <v>4</v>
+      </c>
+      <c r="E20" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="U20" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V20" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="W20" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="X20" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y20" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z20" s="10" t="s">
         <v>12</v>
@@ -4861,71 +5139,72 @@
       <c r="C21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="O21" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="R21" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S21" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="T21" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="U21" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="V21" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W21" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y21" s="10" t="s">
-        <v>12</v>
+      <c r="D21" s="4">
+        <f>COUNTIF(E21:X21,"○")</f>
+        <v>5</v>
+      </c>
+      <c r="E21" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="U21" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V21" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="X21" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y21" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z21" s="10" t="s">
         <v>12</v>
@@ -4980,71 +5259,72 @@
       <c r="C22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S22" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="T22" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="U22" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W22" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>12</v>
+      <c r="D22" s="4">
+        <f>COUNTIF(E22:X22,"○")</f>
+        <v>5</v>
+      </c>
+      <c r="E22" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T22" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="U22" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="W22" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="X22" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y22" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z22" s="10" t="s">
         <v>12</v>
@@ -5099,77 +5379,78 @@
       <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="O23" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S23" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T23" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="U23" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="V23" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W23" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X23" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y23" s="10" t="s">
-        <v>12</v>
+      <c r="D23" s="4">
+        <f>COUNTIF(E23:X23,"○")</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T23" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U23" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="V23" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="W23" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="X23" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y23" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA23" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB23" s="13" t="s">
         <v>12</v>
@@ -5212,83 +5493,84 @@
       </c>
     </row>
     <row r="24" spans="1:40" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="14">
+      <c r="B24" s="70">
         <v>20</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="O24" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P24" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S24" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T24" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="U24" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="V24" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="W24" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="X24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y24" s="17" t="s">
-        <v>12</v>
+      <c r="D24" s="71">
+        <f>COUNTIF(E24:X24,"○")</f>
+        <v>3</v>
+      </c>
+      <c r="E24" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="S24" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="T24" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="U24" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="V24" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="W24" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="X24" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y24" s="63" t="s">
+        <v>13</v>
       </c>
       <c r="Z24" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA24" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB24" s="18" t="s">
         <v>12</v>
@@ -5331,105 +5613,102 @@
       </c>
     </row>
     <row r="25" spans="1:40" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="32">
-        <f>COUNTIF(D5:D24,"○")</f>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="29">
+        <f>COUNTIF(E5:E24,"○")</f>
         <v>4</v>
       </c>
-      <c r="E25" s="33">
-        <f t="shared" ref="E25" si="0">COUNTIF(E5:E24,"○")</f>
+      <c r="F25" s="65">
+        <f t="shared" ref="F25" si="0">COUNTIF(F5:F24,"○")</f>
         <v>3</v>
       </c>
-      <c r="F25" s="33">
-        <f t="shared" ref="F25:X25" si="1">COUNTIF(F5:F24,"○")</f>
+      <c r="G25" s="65">
+        <f t="shared" ref="G25:H25" si="1">COUNTIF(G5:G24,"○")</f>
         <v>5</v>
       </c>
-      <c r="G25" s="33">
+      <c r="H25" s="65">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H25" s="33">
-        <f t="shared" ref="H25:W25" si="2">COUNTIF(H5:H24,"○")</f>
+      <c r="I25" s="65">
+        <f t="shared" ref="I25:X25" si="2">COUNTIF(I5:I24,"○")</f>
         <v>4</v>
       </c>
-      <c r="I25" s="33">
+      <c r="J25" s="66">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J25" s="33">
+      <c r="K25" s="66">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K25" s="33">
+      <c r="L25" s="66">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L25" s="33">
+      <c r="M25" s="66">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M25" s="33">
-        <f t="shared" ref="M25" si="3">COUNTIF(M5:M24,"○")</f>
+      <c r="N25" s="66">
+        <f t="shared" ref="N25" si="3">COUNTIF(N5:N24,"○")</f>
         <v>3</v>
       </c>
-      <c r="N25" s="39">
+      <c r="O25" s="67">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O25" s="39">
+      <c r="P25" s="67">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="P25" s="39">
+      <c r="Q25" s="67">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q25" s="39">
+      <c r="R25" s="67">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="R25" s="39">
+      <c r="S25" s="67">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S25" s="36">
+      <c r="T25" s="68">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="T25" s="36">
+      <c r="U25" s="68">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="U25" s="29">
+      <c r="V25" s="68">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="V25" s="36">
+      <c r="W25" s="68">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="36">
+        <v>5</v>
+      </c>
+      <c r="X25" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y25" s="20">
         <f t="shared" ref="Y25:AN25" si="4">COUNTIF(Y5:Y24,"○")</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z25" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA25" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB25" s="23">
         <f t="shared" si="4"/>
@@ -5490,10 +5769,10 @@
         <v>40</v>
       </c>
       <c r="C26" s="25"/>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
@@ -5535,13 +5814,13 @@
         <v>49</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="F27" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
@@ -5578,33 +5857,15 @@
       <c r="AN27" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
+  <mergeCells count="38">
+    <mergeCell ref="E2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="AH3:AH4"/>
@@ -5612,14 +5873,33 @@
     <mergeCell ref="AJ3:AJ4"/>
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:AB2"/>
+    <mergeCell ref="D2:D4"/>
     <mergeCell ref="AC2:AH2"/>
     <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:AN24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:AN24">
       <formula1>"×,○,△"</formula1>
     </dataValidation>
   </dataValidations>
